--- a/result/JF25034/CT&INV&PL JF25034 NORMAL.xlsx
+++ b/result/JF25034/CT&INV&PL JF25034 NORMAL.xlsx
@@ -444,7 +444,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -799,6 +799,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1490,7 +1502,7 @@
       </c>
       <c r="E3" s="108" t="inlineStr">
         <is>
-          <t>JFTIME</t>
+          <t>sdfasdf</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1517,7 @@
       </c>
       <c r="E4" s="57" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>asdfafd</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1649,7 @@
         </is>
       </c>
       <c r="C16" s="111" t="n">
-        <v>17607.5</v>
+        <v>70430</v>
       </c>
       <c r="D16" s="111" t="n">
         <v>1.25</v>
@@ -1657,7 +1669,7 @@
         </is>
       </c>
       <c r="C17" s="111" t="n">
-        <v>132897.8</v>
+        <v>197133.5</v>
       </c>
       <c r="D17" s="111" t="n">
         <v>1.25</v>
@@ -2268,7 +2280,7 @@
       </c>
       <c r="G7" s="58" t="inlineStr">
         <is>
-          <t>JFREF</t>
+          <t>sdfasdf</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2303,7 @@
       </c>
       <c r="G8" s="86" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>asdfafd</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2322,7 @@
       </c>
       <c r="G9" s="88" t="inlineStr">
         <is>
-          <t>JFTIME</t>
+          <t>sdfasdf</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2516,7 @@
         </is>
       </c>
       <c r="E22" s="122" t="n">
-        <v>17607.5</v>
+        <v>70430</v>
       </c>
       <c r="F22" s="122" t="n">
         <v>1.25</v>
@@ -2532,7 +2544,7 @@
       </c>
       <c r="D23" s="124" t="n"/>
       <c r="E23" s="122" t="n">
-        <v>132897.8</v>
+        <v>197133.5</v>
       </c>
       <c r="F23" s="122" t="n">
         <v>1.25</v>
@@ -2745,7 +2757,11 @@
           <t>TOTAL:</t>
         </is>
       </c>
-      <c r="C32" s="126" t="n"/>
+      <c r="C32" s="126" t="inlineStr">
+        <is>
+          <t>39 PALLETS</t>
+        </is>
+      </c>
       <c r="D32" s="126" t="n"/>
       <c r="E32" s="127">
         <f>SUM(E22:E31)</f>
@@ -3250,7 +3266,7 @@
       </c>
       <c r="I7" s="87" t="inlineStr">
         <is>
-          <t>JFREF</t>
+          <t>sdfasdf</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3290,7 @@
       </c>
       <c r="I8" s="85" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>asdfafd</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3310,7 @@
       </c>
       <c r="I9" s="88" t="inlineStr">
         <is>
-          <t>JFTIME</t>
+          <t>sdfasdf</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4620,11 @@
           <t>TOTAL:</t>
         </is>
       </c>
-      <c r="C63" s="126" t="n"/>
+      <c r="C63" s="126" t="inlineStr">
+        <is>
+          <t>27 PALLETS</t>
+        </is>
+      </c>
       <c r="D63" s="126" t="n"/>
       <c r="E63" s="132">
         <f>SUM(E23:E61)</f>
@@ -4627,242 +4647,863 @@
         <v/>
       </c>
     </row>
-    <row r="64" ht="21" customHeight="1">
-      <c r="A64" s="20" t="n"/>
-      <c r="B64" s="65" t="n"/>
-    </row>
-    <row r="65" ht="21" customHeight="1">
-      <c r="A65" s="13" t="inlineStr">
+    <row r="64" ht="27" customHeight="1"/>
+    <row r="65" ht="27" customHeight="1">
+      <c r="A65" s="118" t="inlineStr">
+        <is>
+          <t>Mark &amp; Nº</t>
+        </is>
+      </c>
+      <c r="B65" s="118" t="inlineStr">
+        <is>
+          <t>P.O Nº</t>
+        </is>
+      </c>
+      <c r="C65" s="118" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="D65" s="118" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E65" s="118" t="inlineStr">
+        <is>
+          <t>Quantity(SF)</t>
+        </is>
+      </c>
+      <c r="F65" s="113" t="n"/>
+      <c r="G65" s="118" t="inlineStr">
+        <is>
+          <t>G.W (kgs)</t>
+        </is>
+      </c>
+      <c r="H65" s="118" t="inlineStr">
+        <is>
+          <t>N.W (kgs)</t>
+        </is>
+      </c>
+      <c r="I65" s="118" t="inlineStr">
+        <is>
+          <t>CBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="27" customHeight="1">
+      <c r="A66" s="125" t="n"/>
+      <c r="B66" s="125" t="n"/>
+      <c r="C66" s="125" t="n"/>
+      <c r="D66" s="125" t="n"/>
+      <c r="E66" s="118" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="F66" s="118" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G66" s="125" t="n"/>
+      <c r="H66" s="125" t="n"/>
+      <c r="I66" s="125" t="n"/>
+    </row>
+    <row r="67" ht="27" customHeight="1">
+      <c r="A67" s="128" t="inlineStr">
+        <is>
+          <t>VENDOR#:</t>
+        </is>
+      </c>
+      <c r="B67" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C67" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D67" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="E67" s="129" t="n">
+        <v>190</v>
+      </c>
+      <c r="F67" s="122" t="n">
+        <v>10209.3</v>
+      </c>
+      <c r="G67" s="122" t="n">
+        <v>813.5</v>
+      </c>
+      <c r="H67" s="122" t="n">
+        <v>768.5</v>
+      </c>
+      <c r="I67" s="130" t="n">
+        <v>2.574</v>
+      </c>
+    </row>
+    <row r="68" ht="27" customHeight="1">
+      <c r="A68" s="131" t="inlineStr">
+        <is>
+          <t>Des: LEATHER</t>
+        </is>
+      </c>
+      <c r="B68" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C68" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D68" s="124" t="n"/>
+      <c r="E68" s="129" t="n">
+        <v>135</v>
+      </c>
+      <c r="F68" s="122" t="n">
+        <v>7398.2</v>
+      </c>
+      <c r="G68" s="122" t="n">
+        <v>613.5</v>
+      </c>
+      <c r="H68" s="122" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="I68" s="130" t="n">
+        <v>2.1384</v>
+      </c>
+    </row>
+    <row r="69" ht="27" customHeight="1">
+      <c r="A69" s="131" t="inlineStr">
+        <is>
+          <t>Case Qty:</t>
+        </is>
+      </c>
+      <c r="B69" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C69" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D69" s="124" t="n"/>
+      <c r="E69" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F69" s="122" t="n">
+        <v>10724.7</v>
+      </c>
+      <c r="G69" s="122" t="n">
+        <v>880.5</v>
+      </c>
+      <c r="H69" s="122" t="n">
+        <v>835.5</v>
+      </c>
+      <c r="I69" s="130" t="n">
+        <v>2.6532</v>
+      </c>
+    </row>
+    <row r="70" ht="27" customHeight="1">
+      <c r="A70" s="131" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B70" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C70" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D70" s="125" t="n"/>
+      <c r="E70" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F70" s="122" t="n">
+        <v>10687.2</v>
+      </c>
+      <c r="G70" s="122" t="n">
+        <v>861</v>
+      </c>
+      <c r="H70" s="122" t="n">
+        <v>816</v>
+      </c>
+      <c r="I70" s="130" t="n">
+        <v>2.4948</v>
+      </c>
+    </row>
+    <row r="71" ht="27" customHeight="1">
+      <c r="A71" s="131" t="n"/>
+      <c r="B71" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER (HS.CODE: 4107.12.00)</t>
+        </is>
+      </c>
+      <c r="C71" s="113" t="n"/>
+      <c r="D71" s="121" t="n"/>
+      <c r="E71" s="129" t="n"/>
+      <c r="F71" s="122" t="n"/>
+      <c r="G71" s="122" t="n"/>
+      <c r="H71" s="122" t="n"/>
+      <c r="I71" s="130" t="n"/>
+    </row>
+    <row r="72" ht="27" customHeight="1">
+      <c r="A72" s="126" t="n"/>
+      <c r="B72" s="126" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="C72" s="126" t="inlineStr">
+        <is>
+          <t>4 PALLETS</t>
+        </is>
+      </c>
+      <c r="D72" s="126" t="n"/>
+      <c r="E72" s="132">
+        <f>SUM(E67:E70)</f>
+        <v/>
+      </c>
+      <c r="F72" s="127">
+        <f>SUM(F67:F70)</f>
+        <v/>
+      </c>
+      <c r="G72" s="127">
+        <f>SUM(G67:G70)</f>
+        <v/>
+      </c>
+      <c r="H72" s="127">
+        <f>SUM(H67:H70)</f>
+        <v/>
+      </c>
+      <c r="I72" s="133">
+        <f>SUM(I67:I70)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" ht="27" customHeight="1"/>
+    <row r="74" ht="27" customHeight="1">
+      <c r="A74" s="118" t="inlineStr">
+        <is>
+          <t>Mark &amp; Nº</t>
+        </is>
+      </c>
+      <c r="B74" s="118" t="inlineStr">
+        <is>
+          <t>P.O Nº</t>
+        </is>
+      </c>
+      <c r="C74" s="118" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="D74" s="118" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E74" s="118" t="inlineStr">
+        <is>
+          <t>Quantity(SF)</t>
+        </is>
+      </c>
+      <c r="F74" s="113" t="n"/>
+      <c r="G74" s="118" t="inlineStr">
+        <is>
+          <t>G.W (kgs)</t>
+        </is>
+      </c>
+      <c r="H74" s="118" t="inlineStr">
+        <is>
+          <t>N.W (kgs)</t>
+        </is>
+      </c>
+      <c r="I74" s="118" t="inlineStr">
+        <is>
+          <t>CBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="27" customHeight="1">
+      <c r="A75" s="125" t="n"/>
+      <c r="B75" s="125" t="n"/>
+      <c r="C75" s="125" t="n"/>
+      <c r="D75" s="125" t="n"/>
+      <c r="E75" s="118" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="F75" s="118" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G75" s="125" t="n"/>
+      <c r="H75" s="125" t="n"/>
+      <c r="I75" s="125" t="n"/>
+    </row>
+    <row r="76" ht="27" customHeight="1">
+      <c r="A76" s="128" t="inlineStr">
+        <is>
+          <t>VENDOR#:</t>
+        </is>
+      </c>
+      <c r="B76" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C76" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D76" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="E76" s="129" t="n">
+        <v>190</v>
+      </c>
+      <c r="F76" s="122" t="n">
+        <v>10209.3</v>
+      </c>
+      <c r="G76" s="122" t="n">
+        <v>813.5</v>
+      </c>
+      <c r="H76" s="122" t="n">
+        <v>768.5</v>
+      </c>
+      <c r="I76" s="130" t="n">
+        <v>2.574</v>
+      </c>
+    </row>
+    <row r="77" ht="27" customHeight="1">
+      <c r="A77" s="131" t="inlineStr">
+        <is>
+          <t>Des: LEATHER</t>
+        </is>
+      </c>
+      <c r="B77" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C77" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D77" s="124" t="n"/>
+      <c r="E77" s="129" t="n">
+        <v>135</v>
+      </c>
+      <c r="F77" s="122" t="n">
+        <v>7398.2</v>
+      </c>
+      <c r="G77" s="122" t="n">
+        <v>613.5</v>
+      </c>
+      <c r="H77" s="122" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="I77" s="130" t="n">
+        <v>2.1384</v>
+      </c>
+    </row>
+    <row r="78" ht="27" customHeight="1">
+      <c r="A78" s="131" t="inlineStr">
+        <is>
+          <t>Case Qty:</t>
+        </is>
+      </c>
+      <c r="B78" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C78" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D78" s="124" t="n"/>
+      <c r="E78" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F78" s="122" t="n">
+        <v>10724.7</v>
+      </c>
+      <c r="G78" s="122" t="n">
+        <v>880.5</v>
+      </c>
+      <c r="H78" s="122" t="n">
+        <v>835.5</v>
+      </c>
+      <c r="I78" s="130" t="n">
+        <v>2.6532</v>
+      </c>
+    </row>
+    <row r="79" ht="27" customHeight="1">
+      <c r="A79" s="131" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B79" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C79" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D79" s="125" t="n"/>
+      <c r="E79" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F79" s="122" t="n">
+        <v>10687.2</v>
+      </c>
+      <c r="G79" s="122" t="n">
+        <v>861</v>
+      </c>
+      <c r="H79" s="122" t="n">
+        <v>816</v>
+      </c>
+      <c r="I79" s="130" t="n">
+        <v>2.4948</v>
+      </c>
+    </row>
+    <row r="80" ht="27" customHeight="1">
+      <c r="A80" s="131" t="n"/>
+      <c r="B80" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER (HS.CODE: 4107.12.00)</t>
+        </is>
+      </c>
+      <c r="C80" s="113" t="n"/>
+      <c r="D80" s="121" t="n"/>
+      <c r="E80" s="129" t="n"/>
+      <c r="F80" s="122" t="n"/>
+      <c r="G80" s="122" t="n"/>
+      <c r="H80" s="122" t="n"/>
+      <c r="I80" s="130" t="n"/>
+    </row>
+    <row r="81" ht="27" customHeight="1">
+      <c r="A81" s="126" t="n"/>
+      <c r="B81" s="126" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="C81" s="126" t="inlineStr">
+        <is>
+          <t>4 PALLETS</t>
+        </is>
+      </c>
+      <c r="D81" s="126" t="n"/>
+      <c r="E81" s="132">
+        <f>SUM(E76:E79)</f>
+        <v/>
+      </c>
+      <c r="F81" s="127">
+        <f>SUM(F76:F79)</f>
+        <v/>
+      </c>
+      <c r="G81" s="127">
+        <f>SUM(G76:G79)</f>
+        <v/>
+      </c>
+      <c r="H81" s="127">
+        <f>SUM(H76:H79)</f>
+        <v/>
+      </c>
+      <c r="I81" s="133">
+        <f>SUM(I76:I79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" ht="27" customHeight="1"/>
+    <row r="83" ht="27" customHeight="1">
+      <c r="A83" s="118" t="inlineStr">
+        <is>
+          <t>Mark &amp; Nº</t>
+        </is>
+      </c>
+      <c r="B83" s="118" t="inlineStr">
+        <is>
+          <t>P.O Nº</t>
+        </is>
+      </c>
+      <c r="C83" s="118" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="D83" s="118" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E83" s="118" t="inlineStr">
+        <is>
+          <t>Quantity(SF)</t>
+        </is>
+      </c>
+      <c r="F83" s="113" t="n"/>
+      <c r="G83" s="118" t="inlineStr">
+        <is>
+          <t>G.W (kgs)</t>
+        </is>
+      </c>
+      <c r="H83" s="118" t="inlineStr">
+        <is>
+          <t>N.W (kgs)</t>
+        </is>
+      </c>
+      <c r="I83" s="118" t="inlineStr">
+        <is>
+          <t>CBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="27" customHeight="1">
+      <c r="A84" s="125" t="n"/>
+      <c r="B84" s="125" t="n"/>
+      <c r="C84" s="125" t="n"/>
+      <c r="D84" s="125" t="n"/>
+      <c r="E84" s="118" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="F84" s="118" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G84" s="125" t="n"/>
+      <c r="H84" s="125" t="n"/>
+      <c r="I84" s="125" t="n"/>
+    </row>
+    <row r="85" ht="27" customHeight="1">
+      <c r="A85" s="128" t="inlineStr">
+        <is>
+          <t>VENDOR#:</t>
+        </is>
+      </c>
+      <c r="B85" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C85" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D85" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="E85" s="129" t="n">
+        <v>190</v>
+      </c>
+      <c r="F85" s="122" t="n">
+        <v>10209.3</v>
+      </c>
+      <c r="G85" s="122" t="n">
+        <v>813.5</v>
+      </c>
+      <c r="H85" s="122" t="n">
+        <v>768.5</v>
+      </c>
+      <c r="I85" s="130" t="n">
+        <v>2.574</v>
+      </c>
+    </row>
+    <row r="86" ht="27" customHeight="1">
+      <c r="A86" s="131" t="inlineStr">
+        <is>
+          <t>Des: LEATHER</t>
+        </is>
+      </c>
+      <c r="B86" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C86" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D86" s="124" t="n"/>
+      <c r="E86" s="129" t="n">
+        <v>135</v>
+      </c>
+      <c r="F86" s="122" t="n">
+        <v>7398.2</v>
+      </c>
+      <c r="G86" s="122" t="n">
+        <v>613.5</v>
+      </c>
+      <c r="H86" s="122" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="I86" s="130" t="n">
+        <v>2.1384</v>
+      </c>
+    </row>
+    <row r="87" ht="27" customHeight="1">
+      <c r="A87" s="131" t="inlineStr">
+        <is>
+          <t>Case Qty:</t>
+        </is>
+      </c>
+      <c r="B87" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C87" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D87" s="124" t="n"/>
+      <c r="E87" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F87" s="122" t="n">
+        <v>10724.7</v>
+      </c>
+      <c r="G87" s="122" t="n">
+        <v>880.5</v>
+      </c>
+      <c r="H87" s="122" t="n">
+        <v>835.5</v>
+      </c>
+      <c r="I87" s="130" t="n">
+        <v>2.6532</v>
+      </c>
+    </row>
+    <row r="88" ht="27" customHeight="1">
+      <c r="A88" s="131" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B88" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C88" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D88" s="125" t="n"/>
+      <c r="E88" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F88" s="122" t="n">
+        <v>10687.2</v>
+      </c>
+      <c r="G88" s="122" t="n">
+        <v>861</v>
+      </c>
+      <c r="H88" s="122" t="n">
+        <v>816</v>
+      </c>
+      <c r="I88" s="130" t="n">
+        <v>2.4948</v>
+      </c>
+    </row>
+    <row r="89" ht="27" customHeight="1">
+      <c r="A89" s="131" t="n"/>
+      <c r="B89" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER (HS.CODE: 4107.12.00)</t>
+        </is>
+      </c>
+      <c r="C89" s="113" t="n"/>
+      <c r="D89" s="121" t="n"/>
+      <c r="E89" s="129" t="n"/>
+      <c r="F89" s="122" t="n"/>
+      <c r="G89" s="122" t="n"/>
+      <c r="H89" s="122" t="n"/>
+      <c r="I89" s="130" t="n"/>
+    </row>
+    <row r="90" ht="27" customHeight="1">
+      <c r="A90" s="126" t="n"/>
+      <c r="B90" s="126" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="C90" s="126" t="inlineStr">
+        <is>
+          <t>4 PALLETS</t>
+        </is>
+      </c>
+      <c r="D90" s="126" t="n"/>
+      <c r="E90" s="132">
+        <f>SUM(E85:E88)</f>
+        <v/>
+      </c>
+      <c r="F90" s="127">
+        <f>SUM(F85:F88)</f>
+        <v/>
+      </c>
+      <c r="G90" s="127">
+        <f>SUM(G85:G88)</f>
+        <v/>
+      </c>
+      <c r="H90" s="127">
+        <f>SUM(H85:H88)</f>
+        <v/>
+      </c>
+      <c r="I90" s="133">
+        <f>SUM(I85:I88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" ht="27" customHeight="1">
+      <c r="B91" s="134" t="inlineStr">
+        <is>
+          <t>TOTAL OF:</t>
+        </is>
+      </c>
+      <c r="C91" s="134" t="inlineStr">
+        <is>
+          <t>39 PALLETS</t>
+        </is>
+      </c>
+      <c r="E91" s="135">
+        <f>SUM(E23:E61,E67:E70,E76:E79,E85:E88)</f>
+        <v/>
+      </c>
+      <c r="F91" s="136">
+        <f>SUM(F23:F61,F67:F70,F76:F79,F85:F88)</f>
+        <v/>
+      </c>
+      <c r="G91" s="136">
+        <f>SUM(G23:G61,G67:G70,G76:G79,G85:G88)</f>
+        <v/>
+      </c>
+      <c r="H91" s="136">
+        <f>SUM(H23:H61,H67:H70,H76:H79,H85:H88)</f>
+        <v/>
+      </c>
+      <c r="I91" s="137">
+        <f>SUM(I23:I61,I67:I70,I76:I79,I85:I88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="20" t="n"/>
+      <c r="B92" s="65" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="13" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="B65" s="13" t="n"/>
-      <c r="C65" s="13" t="n"/>
-      <c r="D65" s="101" t="n"/>
-      <c r="E65" s="27" t="n"/>
-      <c r="F65" s="96" t="n"/>
-      <c r="G65" s="96" t="n"/>
-      <c r="H65" s="96" t="n"/>
-    </row>
-    <row r="66" ht="65.25" customHeight="1">
-      <c r="A66" s="28" t="inlineStr">
+      <c r="B93" s="13" t="n"/>
+      <c r="C93" s="13" t="n"/>
+      <c r="D93" s="101" t="n"/>
+      <c r="E93" s="27" t="n"/>
+      <c r="F93" s="96" t="n"/>
+      <c r="G93" s="96" t="n"/>
+      <c r="H93" s="96" t="n"/>
+    </row>
+    <row r="94" ht="65.25" customHeight="1">
+      <c r="A94" s="28" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B66" s="104" t="inlineStr">
+      <c r="B94" s="104" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="E66" s="31" t="n"/>
-      <c r="F66" s="31" t="n"/>
-      <c r="G66" s="31" t="n"/>
-      <c r="H66" s="96" t="n"/>
-    </row>
-    <row r="67" ht="51.75" customHeight="1">
-      <c r="A67" s="104" t="inlineStr">
+      <c r="E94" s="31" t="n"/>
+      <c r="F94" s="31" t="n"/>
+      <c r="G94" s="31" t="n"/>
+      <c r="H94" s="96" t="n"/>
+    </row>
+    <row r="95" ht="51.75" customHeight="1">
+      <c r="A95" s="104" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED  PHNOM PENH BRANCH
                                           /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="E67" s="31" t="n"/>
-      <c r="F67" s="31" t="n"/>
-      <c r="G67" s="31" t="n"/>
-      <c r="H67" s="31" t="n"/>
-    </row>
-    <row r="68" ht="21" customHeight="1">
-      <c r="A68" s="99" t="inlineStr">
+      <c r="E95" s="31" t="n"/>
+      <c r="F95" s="31" t="n"/>
+      <c r="G95" s="31" t="n"/>
+      <c r="H95" s="31" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="99" t="inlineStr">
         <is>
           <t>A/C NO:100001100764430</t>
         </is>
       </c>
-      <c r="B68" s="99" t="n"/>
-      <c r="C68" s="99" t="n"/>
-      <c r="D68" s="99" t="n"/>
-      <c r="E68" s="16" t="n"/>
-      <c r="F68" s="16" t="n"/>
-      <c r="G68" s="16" t="n"/>
-      <c r="H68" s="16" t="n"/>
-    </row>
-    <row r="69" ht="21" customHeight="1">
-      <c r="A69" s="99" t="inlineStr">
+      <c r="B96" s="99" t="n"/>
+      <c r="C96" s="99" t="n"/>
+      <c r="D96" s="99" t="n"/>
+      <c r="E96" s="16" t="n"/>
+      <c r="F96" s="16" t="n"/>
+      <c r="G96" s="16" t="n"/>
+      <c r="H96" s="16" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="99" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="B69" s="99" t="n"/>
-      <c r="C69" s="99" t="n"/>
-      <c r="D69" s="99" t="n"/>
-      <c r="E69" s="16" t="n"/>
-      <c r="F69" s="16" t="n"/>
-      <c r="G69" s="16" t="n"/>
-      <c r="H69" s="16" t="n"/>
-    </row>
-    <row r="70" ht="21" customHeight="1">
-      <c r="A70" s="82" t="n"/>
-      <c r="B70" s="83" t="n"/>
-      <c r="C70" s="82" t="n"/>
-      <c r="D70" s="82" t="n"/>
-      <c r="E70" s="84" t="n"/>
-      <c r="F70" s="96" t="inlineStr">
+      <c r="B97" s="99" t="n"/>
+      <c r="C97" s="99" t="n"/>
+      <c r="D97" s="99" t="n"/>
+      <c r="E97" s="16" t="n"/>
+      <c r="F97" s="16" t="n"/>
+      <c r="G97" s="16" t="n"/>
+      <c r="H97" s="16" t="n"/>
+    </row>
+    <row r="98" ht="115.7" customHeight="1">
+      <c r="A98" s="82" t="n"/>
+      <c r="B98" s="83" t="n"/>
+      <c r="C98" s="82" t="n"/>
+      <c r="D98" s="82" t="n"/>
+      <c r="E98" s="84" t="n"/>
+      <c r="F98" s="96" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="G70" s="96" t="n"/>
-      <c r="H70" s="84" t="n"/>
-    </row>
-    <row r="71" ht="21" customHeight="1"/>
-    <row r="72" ht="25.5" customHeight="1"/>
-    <row r="73" ht="21" customHeight="1"/>
-    <row r="74" ht="21" customHeight="1"/>
-    <row r="75" ht="21" customHeight="1"/>
-    <row r="76" ht="21" customHeight="1"/>
-    <row r="77" ht="21" customHeight="1"/>
-    <row r="78" ht="17.25" customHeight="1"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83">
-      <c r="A83" s="71" t="n"/>
-      <c r="B83" s="67" t="n"/>
-      <c r="C83" s="52" t="n"/>
-      <c r="D83" s="53" t="n"/>
-      <c r="E83" s="54" t="n"/>
-      <c r="F83" s="55" t="n"/>
-      <c r="G83" s="55" t="n"/>
-      <c r="H83" s="55" t="n"/>
-      <c r="I83" s="55" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="67" t="n"/>
-      <c r="C84" s="52" t="n"/>
-      <c r="D84" s="53" t="n"/>
-      <c r="E84" s="54" t="n"/>
-      <c r="F84" s="55" t="n"/>
-      <c r="G84" s="55" t="n"/>
-      <c r="H84" s="55" t="n"/>
-      <c r="I84" s="55" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="67" t="n"/>
-      <c r="C85" s="52" t="n"/>
-      <c r="D85" s="53" t="n"/>
-      <c r="E85" s="54" t="n"/>
-      <c r="F85" s="55" t="n"/>
-      <c r="G85" s="55" t="n"/>
-      <c r="H85" s="55" t="n"/>
-      <c r="I85" s="55" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="67" t="n"/>
-      <c r="C86" s="52" t="n"/>
-      <c r="D86" s="53" t="n"/>
-      <c r="E86" s="54" t="n"/>
-      <c r="F86" s="55" t="n"/>
-      <c r="G86" s="55" t="n"/>
-      <c r="H86" s="55" t="n"/>
-      <c r="I86" s="55" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="67" t="n"/>
-      <c r="C87" s="52" t="n"/>
-      <c r="D87" s="53" t="n"/>
-      <c r="E87" s="54" t="n"/>
-      <c r="F87" s="55" t="n"/>
-      <c r="G87" s="55" t="n"/>
-      <c r="H87" s="55" t="n"/>
-      <c r="I87" s="55" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="67" t="n"/>
-      <c r="C88" s="52" t="n"/>
-      <c r="D88" s="53" t="n"/>
-      <c r="E88" s="54" t="n"/>
-      <c r="F88" s="55" t="n"/>
-      <c r="G88" s="55" t="n"/>
-      <c r="H88" s="55" t="n"/>
-      <c r="I88" s="55" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="67" t="n"/>
-      <c r="C89" s="52" t="n"/>
-      <c r="D89" s="53" t="n"/>
-      <c r="E89" s="54" t="n"/>
-      <c r="F89" s="55" t="n"/>
-      <c r="G89" s="55" t="n"/>
-      <c r="H89" s="55" t="n"/>
-      <c r="I89" s="55" t="n"/>
-    </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="67" t="n"/>
-      <c r="C90" s="52" t="n"/>
-      <c r="D90" s="53" t="n"/>
-      <c r="E90" s="54" t="n"/>
-      <c r="F90" s="55" t="n"/>
-      <c r="G90" s="55" t="n"/>
-      <c r="H90" s="55" t="n"/>
-      <c r="I90" s="55" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="67" t="n"/>
-      <c r="C91" s="52" t="n"/>
-      <c r="D91" s="53" t="n"/>
-      <c r="E91" s="54" t="n"/>
-      <c r="F91" s="55" t="n"/>
-      <c r="G91" s="55" t="n"/>
-      <c r="H91" s="55" t="n"/>
-      <c r="I91" s="55" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="101" t="n"/>
-      <c r="B92" s="68" t="n"/>
-      <c r="C92" s="24" t="n"/>
-      <c r="D92" s="101" t="n"/>
-      <c r="E92" s="25" t="n"/>
-      <c r="F92" s="26" t="n"/>
-      <c r="G92" s="26" t="n"/>
-      <c r="H92" s="26" t="n"/>
-      <c r="I92" s="26" t="n"/>
-    </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97">
-      <c r="B97" s="69" t="n"/>
-    </row>
-    <row r="98" ht="115.7" customHeight="1"/>
+      <c r="G98" s="96" t="n"/>
+      <c r="H98" s="84" t="n"/>
+    </row>
     <row r="99" ht="113.65" customHeight="1"/>
-    <row r="100">
-      <c r="F100" s="96" t="n"/>
-      <c r="G100" s="96" t="n"/>
-      <c r="H100" s="96" t="n"/>
-    </row>
-    <row r="101">
-      <c r="F101" s="96" t="n"/>
-      <c r="G101" s="96" t="n"/>
-      <c r="H101" s="96" t="n"/>
-    </row>
-    <row r="102">
-      <c r="F102" s="96" t="n"/>
-      <c r="G102" s="96" t="n"/>
-      <c r="H102" s="96" t="n"/>
-      <c r="I102" s="96" t="n"/>
-    </row>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
     <row r="103"/>
     <row r="104"/>
     <row r="105"/>
@@ -4871,26 +5512,141 @@
     <row r="108"/>
     <row r="109"/>
     <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
+    <row r="111">
+      <c r="A111" s="71" t="n"/>
+      <c r="B111" s="67" t="n"/>
+      <c r="C111" s="52" t="n"/>
+      <c r="D111" s="53" t="n"/>
+      <c r="E111" s="54" t="n"/>
+      <c r="F111" s="55" t="n"/>
+      <c r="G111" s="55" t="n"/>
+      <c r="H111" s="55" t="n"/>
+      <c r="I111" s="55" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="21" t="n"/>
+      <c r="B112" s="67" t="n"/>
+      <c r="C112" s="52" t="n"/>
+      <c r="D112" s="53" t="n"/>
+      <c r="E112" s="54" t="n"/>
+      <c r="F112" s="55" t="n"/>
+      <c r="G112" s="55" t="n"/>
+      <c r="H112" s="55" t="n"/>
+      <c r="I112" s="55" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="21" t="n"/>
+      <c r="B113" s="67" t="n"/>
+      <c r="C113" s="52" t="n"/>
+      <c r="D113" s="53" t="n"/>
+      <c r="E113" s="54" t="n"/>
+      <c r="F113" s="55" t="n"/>
+      <c r="G113" s="55" t="n"/>
+      <c r="H113" s="55" t="n"/>
+      <c r="I113" s="55" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="21" t="n"/>
+      <c r="B114" s="67" t="n"/>
+      <c r="C114" s="52" t="n"/>
+      <c r="D114" s="53" t="n"/>
+      <c r="E114" s="54" t="n"/>
+      <c r="F114" s="55" t="n"/>
+      <c r="G114" s="55" t="n"/>
+      <c r="H114" s="55" t="n"/>
+      <c r="I114" s="55" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="21" t="n"/>
+      <c r="B115" s="67" t="n"/>
+      <c r="C115" s="52" t="n"/>
+      <c r="D115" s="53" t="n"/>
+      <c r="E115" s="54" t="n"/>
+      <c r="F115" s="55" t="n"/>
+      <c r="G115" s="55" t="n"/>
+      <c r="H115" s="55" t="n"/>
+      <c r="I115" s="55" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="21" t="n"/>
+      <c r="B116" s="67" t="n"/>
+      <c r="C116" s="52" t="n"/>
+      <c r="D116" s="53" t="n"/>
+      <c r="E116" s="54" t="n"/>
+      <c r="F116" s="55" t="n"/>
+      <c r="G116" s="55" t="n"/>
+      <c r="H116" s="55" t="n"/>
+      <c r="I116" s="55" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="21" t="n"/>
+      <c r="B117" s="67" t="n"/>
+      <c r="C117" s="52" t="n"/>
+      <c r="D117" s="53" t="n"/>
+      <c r="E117" s="54" t="n"/>
+      <c r="F117" s="55" t="n"/>
+      <c r="G117" s="55" t="n"/>
+      <c r="H117" s="55" t="n"/>
+      <c r="I117" s="55" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="67" t="n"/>
+      <c r="C118" s="52" t="n"/>
+      <c r="D118" s="53" t="n"/>
+      <c r="E118" s="54" t="n"/>
+      <c r="F118" s="55" t="n"/>
+      <c r="G118" s="55" t="n"/>
+      <c r="H118" s="55" t="n"/>
+      <c r="I118" s="55" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="21" t="n"/>
+      <c r="B119" s="67" t="n"/>
+      <c r="C119" s="52" t="n"/>
+      <c r="D119" s="53" t="n"/>
+      <c r="E119" s="54" t="n"/>
+      <c r="F119" s="55" t="n"/>
+      <c r="G119" s="55" t="n"/>
+      <c r="H119" s="55" t="n"/>
+      <c r="I119" s="55" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="101" t="n"/>
+      <c r="B120" s="68" t="n"/>
+      <c r="C120" s="24" t="n"/>
+      <c r="D120" s="101" t="n"/>
+      <c r="E120" s="25" t="n"/>
+      <c r="F120" s="26" t="n"/>
+      <c r="G120" s="26" t="n"/>
+      <c r="H120" s="26" t="n"/>
+      <c r="I120" s="26" t="n"/>
+    </row>
     <row r="121"/>
     <row r="122"/>
     <row r="123"/>
     <row r="124"/>
-    <row r="125"/>
+    <row r="125">
+      <c r="B125" s="69" t="n"/>
+    </row>
     <row r="126"/>
     <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
+    <row r="128">
+      <c r="F128" s="96" t="n"/>
+      <c r="G128" s="96" t="n"/>
+      <c r="H128" s="96" t="n"/>
+    </row>
+    <row r="129">
+      <c r="F129" s="96" t="n"/>
+      <c r="G129" s="96" t="n"/>
+      <c r="H129" s="96" t="n"/>
+    </row>
+    <row r="130">
+      <c r="F130" s="96" t="n"/>
+      <c r="G130" s="96" t="n"/>
+      <c r="H130" s="96" t="n"/>
+      <c r="I130" s="96" t="n"/>
+    </row>
     <row r="131"/>
     <row r="132"/>
     <row r="133"/>
@@ -4900,24 +5656,12 @@
     <row r="137"/>
     <row r="138"/>
     <row r="139"/>
-    <row r="140">
-      <c r="I140" s="96" t="n"/>
-    </row>
-    <row r="141">
-      <c r="I141" s="96" t="n"/>
-    </row>
-    <row r="142">
-      <c r="I142" s="96" t="n"/>
-    </row>
-    <row r="143">
-      <c r="I143" s="16" t="n"/>
-    </row>
-    <row r="144">
-      <c r="I144" s="16" t="n"/>
-    </row>
-    <row r="145">
-      <c r="I145" s="96" t="n"/>
-    </row>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
     <row r="146"/>
     <row r="147"/>
     <row r="148"/>
@@ -4940,12 +5684,24 @@
     <row r="165"/>
     <row r="166"/>
     <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
+    <row r="168">
+      <c r="I168" s="96" t="n"/>
+    </row>
+    <row r="169">
+      <c r="I169" s="96" t="n"/>
+    </row>
+    <row r="170">
+      <c r="I170" s="96" t="n"/>
+    </row>
+    <row r="171">
+      <c r="I171" s="16" t="n"/>
+    </row>
+    <row r="172">
+      <c r="I172" s="16" t="n"/>
+    </row>
+    <row r="173">
+      <c r="I173" s="96" t="n"/>
+    </row>
     <row r="174"/>
     <row r="175"/>
     <row r="176"/>
@@ -4974,24 +5730,61 @@
     <row r="199"/>
     <row r="200"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="56">
     <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="H74:H75"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B63"/>
-    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A74:A75"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A64"/>
+    <mergeCell ref="B91"/>
+    <mergeCell ref="G74:G75"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="A73"/>
+    <mergeCell ref="B81"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A82"/>
+    <mergeCell ref="B72"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="B90"/>
     <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E74:F74"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="A83:A84"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C83:C84"/>
     <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="A95:D95"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D85:D88"/>
     <mergeCell ref="D23:D61"/>
     <mergeCell ref="E21:F21"/>
   </mergeCells>

--- a/result/JF25034/CT&INV&PL JF25034 NORMAL.xlsx
+++ b/result/JF25034/CT&INV&PL JF25034 NORMAL.xlsx
@@ -21,11 +21,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="###0;###0"/>
     <numFmt numFmtId="167" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -444,7 +445,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -733,7 +734,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -757,6 +758,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,18 +803,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1500,10 +1492,8 @@
           <t>DATE:</t>
         </is>
       </c>
-      <c r="E3" s="108" t="inlineStr">
-        <is>
-          <t>sdfasdf</t>
-        </is>
+      <c r="E3" s="108" t="n">
+        <v>45840</v>
       </c>
     </row>
     <row r="4" ht="30" customFormat="1" customHeight="1" s="35">
@@ -1517,7 +1507,7 @@
       </c>
       <c r="E4" s="57" t="inlineStr">
         <is>
-          <t>asdfafd</t>
+          <t>JF25034</t>
         </is>
       </c>
     </row>
@@ -1645,14 +1635,14 @@
       </c>
       <c r="B16" s="110" t="inlineStr">
         <is>
-          <t>01.10.U756071</t>
+          <t>01.10.O6509</t>
         </is>
       </c>
       <c r="C16" s="111" t="n">
-        <v>70430</v>
+        <v>20701.2</v>
       </c>
       <c r="D16" s="111" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="E16" s="111">
         <f>D16*C16</f>
@@ -1665,14 +1655,14 @@
       </c>
       <c r="B17" s="110" t="inlineStr">
         <is>
-          <t>01.10.U528073</t>
+          <t>01.10.O6509</t>
         </is>
       </c>
       <c r="C17" s="111" t="n">
-        <v>197133.5</v>
+        <v>123.3</v>
       </c>
       <c r="D17" s="111" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="E17" s="111">
         <f>D17*C17</f>
@@ -1685,14 +1675,14 @@
       </c>
       <c r="B18" s="110" t="inlineStr">
         <is>
-          <t>01.10.U528073</t>
+          <t>01.10.U528043</t>
         </is>
       </c>
       <c r="C18" s="111" t="n">
-        <v>1684.6</v>
+        <v>9661.200000000001</v>
       </c>
       <c r="D18" s="111" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="E18" s="111">
         <f>D18*C18</f>
@@ -1705,14 +1695,14 @@
       </c>
       <c r="B19" s="110" t="inlineStr">
         <is>
-          <t>01.10.U528073</t>
+          <t>01.10.U528043</t>
         </is>
       </c>
       <c r="C19" s="111" t="n">
-        <v>659.6</v>
+        <v>666.5</v>
       </c>
       <c r="D19" s="111" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="E19" s="111">
         <f>D19*C19</f>
@@ -1725,14 +1715,14 @@
       </c>
       <c r="B20" s="110" t="inlineStr">
         <is>
-          <t>01.10.U243022</t>
+          <t>01.10.U756043</t>
         </is>
       </c>
       <c r="C20" s="111" t="n">
-        <v>10028.8</v>
+        <v>20041.1</v>
       </c>
       <c r="D20" s="111" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="E20" s="111">
         <f>D20*C20</f>
@@ -1745,14 +1735,14 @@
       </c>
       <c r="B21" s="110" t="inlineStr">
         <is>
-          <t>01.10.U243022</t>
+          <t>01.10.U722233</t>
         </is>
       </c>
       <c r="C21" s="111" t="n">
-        <v>63222.4</v>
+        <v>26685.3</v>
       </c>
       <c r="D21" s="111" t="n">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="E21" s="111">
         <f>D21*C21</f>
@@ -1765,246 +1755,189 @@
       </c>
       <c r="B22" s="110" t="inlineStr">
         <is>
-          <t>01.10.U243022</t>
+          <t>01.10.U722233</t>
         </is>
       </c>
       <c r="C22" s="111" t="n">
-        <v>2082.4</v>
+        <v>751.4</v>
       </c>
       <c r="D22" s="111" t="n">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="E22" s="111">
         <f>D22*C22</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="30" customFormat="1" customHeight="1" s="36">
-      <c r="A23" s="110" t="n">
-        <v>8</v>
-      </c>
-      <c r="B23" s="110" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="C23" s="111" t="n">
-        <v>2680.5</v>
-      </c>
-      <c r="D23" s="111" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E23" s="111">
-        <f>D23*C23</f>
+    <row r="23" ht="36" customFormat="1" customHeight="1" s="36">
+      <c r="A23" s="112" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="B23" s="113" t="n"/>
+      <c r="C23" s="114">
+        <f>SUM(C16:C22)</f>
         <v/>
       </c>
-    </row>
-    <row r="24" ht="30" customFormat="1" customHeight="1" s="36">
-      <c r="A24" s="110" t="n">
-        <v>9</v>
-      </c>
-      <c r="B24" s="110" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="C24" s="111" t="n">
-        <v>19366.2</v>
-      </c>
-      <c r="D24" s="111" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E24" s="111">
-        <f>D24*C24</f>
+      <c r="D23" s="112" t="n"/>
+      <c r="E23" s="114">
+        <f>SUM(E16:E22)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="30" customFormat="1" customHeight="1" s="36">
-      <c r="A25" s="110" t="n">
-        <v>10</v>
-      </c>
-      <c r="B25" s="110" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="C25" s="111" t="n">
-        <v>2367</v>
-      </c>
-      <c r="D25" s="111" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E25" s="111">
-        <f>D25*C25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="36" customFormat="1" customHeight="1" s="37">
-      <c r="A26" s="112" t="inlineStr">
-        <is>
-          <t>TOTAL:</t>
-        </is>
-      </c>
-      <c r="B26" s="113" t="n"/>
-      <c r="C26" s="114">
-        <f>SUM(C16:C25)</f>
-        <v/>
-      </c>
-      <c r="D26" s="112" t="n"/>
-      <c r="E26" s="114">
-        <f>SUM(E16:E25)</f>
-        <v/>
-      </c>
+    <row r="24" ht="29.1" customFormat="1" customHeight="1" s="36">
+      <c r="A24" s="94" t="n"/>
+      <c r="C24" s="115" t="n"/>
+      <c r="D24" s="115" t="n"/>
+      <c r="E24" s="115" t="n"/>
+    </row>
+    <row r="25" ht="29.1" customFormat="1" customHeight="1" s="36">
+      <c r="A25" s="45" t="inlineStr">
+        <is>
+          <t>FCA:</t>
+        </is>
+      </c>
+      <c r="B25" s="46" t="inlineStr">
+        <is>
+          <t>BAVET, SVAY RIENG</t>
+        </is>
+      </c>
+      <c r="C25" s="41" t="n"/>
+      <c r="D25" s="41" t="n"/>
+      <c r="E25" s="41" t="n"/>
+    </row>
+    <row r="26" ht="29.1" customFormat="1" customHeight="1" s="37">
+      <c r="A26" s="41" t="inlineStr">
+        <is>
+          <t>Term of Payment: 100% TT after shipment</t>
+        </is>
+      </c>
+      <c r="B26" s="41" t="n"/>
+      <c r="C26" s="41" t="n"/>
+      <c r="D26" s="41" t="n"/>
+      <c r="E26" s="41" t="n"/>
     </row>
     <row r="27" ht="57" customFormat="1" customHeight="1" s="37">
-      <c r="A27" s="94" t="n"/>
-      <c r="C27" s="115" t="n"/>
-      <c r="D27" s="115" t="n"/>
-      <c r="E27" s="115" t="n"/>
+      <c r="A27" s="41" t="inlineStr">
+        <is>
+          <t>Transaction method: FCA(USD)</t>
+        </is>
+      </c>
+      <c r="B27" s="41" t="n"/>
+      <c r="C27" s="41" t="n"/>
+      <c r="D27" s="41" t="n"/>
+      <c r="E27" s="41" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="45" t="inlineStr">
-        <is>
-          <t>FCA:</t>
-        </is>
-      </c>
-      <c r="B28" s="46" t="inlineStr">
-        <is>
-          <t>BAVET, SVAY RIENG</t>
-        </is>
-      </c>
-      <c r="C28" s="41" t="n"/>
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beneficiary bank information: </t>
+        </is>
+      </c>
+      <c r="B28" s="41" t="n"/>
+      <c r="C28" s="41" t="inlineStr">
+        <is>
+          <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
+        </is>
+      </c>
       <c r="D28" s="41" t="n"/>
       <c r="E28" s="41" t="n"/>
     </row>
-    <row r="29">
+    <row r="29" ht="45.95" customHeight="1">
       <c r="A29" s="41" t="inlineStr">
         <is>
-          <t>Term of Payment: 100% TT after shipment</t>
+          <t xml:space="preserve">Beneficiary Bank' s Name: </t>
         </is>
       </c>
       <c r="B29" s="41" t="n"/>
-      <c r="C29" s="41" t="n"/>
-      <c r="D29" s="41" t="n"/>
-      <c r="E29" s="41" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="41" t="inlineStr">
-        <is>
-          <t>Transaction method: FCA(USD)</t>
-        </is>
-      </c>
-      <c r="B30" s="41" t="n"/>
-      <c r="C30" s="41" t="n"/>
-      <c r="D30" s="41" t="n"/>
-      <c r="E30" s="41" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beneficiary bank information: </t>
-        </is>
-      </c>
-      <c r="B31" s="41" t="n"/>
-      <c r="C31" s="41" t="inlineStr">
-        <is>
-          <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
-        </is>
-      </c>
-      <c r="D31" s="41" t="n"/>
-      <c r="E31" s="41" t="n"/>
-    </row>
-    <row r="32" ht="45.95" customHeight="1">
-      <c r="A32" s="41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beneficiary Bank' s Name: </t>
-        </is>
-      </c>
-      <c r="B32" s="41" t="n"/>
-      <c r="C32" s="91" t="inlineStr">
+      <c r="C29" s="91" t="inlineStr">
         <is>
           <t>BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
  /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="41.1" customHeight="1">
-      <c r="A33" s="41" t="inlineStr">
+    <row r="30" ht="41.1" customHeight="1">
+      <c r="A30" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve">Bank Address:  </t>
         </is>
       </c>
-      <c r="B33" s="41" t="n"/>
-      <c r="C33" s="91" t="inlineStr">
+      <c r="B30" s="41" t="n"/>
+      <c r="C30" s="91" t="inlineStr">
         <is>
           <t>1st AND 2nd FLOOR,CANADIA TOWER,No.315 ANDDUONG ST.
 PHNOM PEMH,CAMBODIA.</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="29.1" customHeight="1">
-      <c r="A34" s="41" t="inlineStr">
+    <row r="31" ht="29.1" customHeight="1">
+      <c r="A31" s="41" t="inlineStr">
         <is>
           <t>Bank account :</t>
         </is>
       </c>
-      <c r="B34" s="41" t="n"/>
-      <c r="C34" s="92" t="inlineStr">
+      <c r="B31" s="41" t="n"/>
+      <c r="C31" s="92" t="inlineStr">
         <is>
           <t>100001100764430</t>
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="41" t="inlineStr">
+        <is>
+          <t>SWIFT CODE  ：</t>
+        </is>
+      </c>
+      <c r="B32" s="41" t="n"/>
+      <c r="C32" s="41" t="inlineStr">
+        <is>
+          <t>BKCHKHPPXXX</t>
+        </is>
+      </c>
+      <c r="D32" s="41" t="n"/>
+      <c r="E32" s="41" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="41" t="n"/>
+      <c r="B33" s="41" t="n"/>
+      <c r="C33" s="41" t="n"/>
+      <c r="D33" s="41" t="n"/>
+      <c r="E33" s="41" t="n"/>
+      <c r="F33" s="41" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="37" t="inlineStr">
+        <is>
+          <t>The Buyer:</t>
+        </is>
+      </c>
+      <c r="D34" s="47" t="inlineStr">
+        <is>
+          <t>The Seller:</t>
+        </is>
+      </c>
+    </row>
     <row r="35">
-      <c r="A35" s="41" t="inlineStr">
-        <is>
-          <t>SWIFT CODE  ：</t>
-        </is>
-      </c>
-      <c r="B35" s="41" t="n"/>
-      <c r="C35" s="41" t="inlineStr">
-        <is>
-          <t>BKCHKHPPXXX</t>
-        </is>
-      </c>
-      <c r="D35" s="41" t="n"/>
-      <c r="E35" s="41" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="41" t="n"/>
-      <c r="B36" s="41" t="n"/>
-      <c r="C36" s="41" t="n"/>
-      <c r="D36" s="41" t="n"/>
-      <c r="E36" s="41" t="n"/>
-      <c r="F36" s="41" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="37" t="inlineStr">
-        <is>
-          <t>The Buyer:</t>
-        </is>
-      </c>
-      <c r="D37" s="47" t="inlineStr">
-        <is>
-          <t>The Seller:</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="73" t="inlineStr">
+      <c r="A35" s="73" t="inlineStr">
         <is>
           <t>JASON FURNITURE VIET NAM COMPANY LIMITED</t>
         </is>
       </c>
-      <c r="B38" s="72" t="n"/>
-      <c r="C38" s="48" t="n"/>
-      <c r="D38" s="73" t="inlineStr">
+      <c r="B35" s="72" t="n"/>
+      <c r="C35" s="48" t="n"/>
+      <c r="D35" s="73" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO.,LTD.</t>
         </is>
       </c>
-      <c r="E38" s="73" t="n"/>
-    </row>
+      <c r="E35" s="73" t="n"/>
+    </row>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
     <row r="39"/>
     <row r="40"/>
     <row r="41"/>
@@ -2169,16 +2102,16 @@
     <row r="200" ht="27.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="A12:D12"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C32:E32"/>
     <mergeCell ref="A200:B200"/>
   </mergeCells>
   <pageMargins left="0.432638888888889" right="0.314583333333333" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2280,7 +2213,7 @@
       </c>
       <c r="G7" s="58" t="inlineStr">
         <is>
-          <t>sdfasdf</t>
+          <t>CLF2025-151</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2236,7 @@
       </c>
       <c r="G8" s="86" t="inlineStr">
         <is>
-          <t>asdfafd</t>
+          <t>JF25034</t>
         </is>
       </c>
     </row>
@@ -2320,10 +2253,8 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="G9" s="88" t="inlineStr">
-        <is>
-          <t>sdfasdf</t>
-        </is>
+      <c r="G9" s="118" t="n">
+        <v>45840</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
@@ -2458,417 +2389,379 @@
       <c r="B20" s="20" t="n"/>
     </row>
     <row r="21" ht="35" customHeight="1">
-      <c r="A21" s="118" t="inlineStr">
+      <c r="A21" s="119" t="inlineStr">
         <is>
           <t>Mark &amp; Nº</t>
         </is>
       </c>
-      <c r="B21" s="118" t="inlineStr">
+      <c r="B21" s="119" t="inlineStr">
         <is>
           <t>P.O. Nº</t>
         </is>
       </c>
-      <c r="C21" s="118" t="inlineStr">
+      <c r="C21" s="119" t="inlineStr">
         <is>
           <t>ITEM Nº</t>
         </is>
       </c>
-      <c r="D21" s="118" t="inlineStr">
+      <c r="D21" s="119" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E21" s="118" t="inlineStr">
+      <c r="E21" s="119" t="inlineStr">
         <is>
           <t>Quantity(SF)</t>
         </is>
       </c>
-      <c r="F21" s="118" t="inlineStr">
+      <c r="F21" s="119" t="inlineStr">
         <is>
           <t>Unit price (USD)</t>
         </is>
       </c>
-      <c r="G21" s="118" t="inlineStr">
+      <c r="G21" s="119" t="inlineStr">
         <is>
           <t>Amount (USD)</t>
         </is>
       </c>
     </row>
     <row r="22" ht="35" customHeight="1">
-      <c r="A22" s="119" t="inlineStr">
+      <c r="A22" s="120" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
       </c>
-      <c r="B22" s="120" t="inlineStr">
-        <is>
-          <t>9000684226</t>
-        </is>
-      </c>
-      <c r="C22" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U756071</t>
-        </is>
-      </c>
-      <c r="D22" s="121" t="inlineStr">
+      <c r="B22" s="121" t="inlineStr">
+        <is>
+          <t>9000675121</t>
+        </is>
+      </c>
+      <c r="C22" s="121" t="inlineStr">
+        <is>
+          <t>01.10.O6509</t>
+        </is>
+      </c>
+      <c r="D22" s="122" t="inlineStr">
         <is>
           <t>LEATHER</t>
         </is>
       </c>
-      <c r="E22" s="122" t="n">
-        <v>70430</v>
-      </c>
-      <c r="F22" s="122" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G22" s="122">
+      <c r="E22" s="123" t="n">
+        <v>20701.2</v>
+      </c>
+      <c r="F22" s="123" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G22" s="123">
         <f>F22*E22</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1">
-      <c r="A23" s="123" t="inlineStr">
+      <c r="A23" s="124" t="inlineStr">
         <is>
           <t>Des: LEATHER</t>
         </is>
       </c>
-      <c r="B23" s="120" t="inlineStr">
-        <is>
-          <t>9000714968</t>
-        </is>
-      </c>
-      <c r="C23" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D23" s="124" t="n"/>
-      <c r="E23" s="122" t="n">
-        <v>197133.5</v>
-      </c>
-      <c r="F23" s="122" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G23" s="122">
+      <c r="B23" s="121" t="inlineStr">
+        <is>
+          <t>9000675121</t>
+        </is>
+      </c>
+      <c r="C23" s="121" t="inlineStr">
+        <is>
+          <t>01.10.O6509</t>
+        </is>
+      </c>
+      <c r="D23" s="125" t="n"/>
+      <c r="E23" s="123" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="F23" s="123" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G23" s="123">
         <f>F23*E23</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="35" customHeight="1">
-      <c r="A24" s="123" t="inlineStr">
+      <c r="A24" s="124" t="inlineStr">
         <is>
           <t>MADE IN CAMBODIA</t>
         </is>
       </c>
-      <c r="B24" s="120" t="inlineStr">
-        <is>
-          <t>9000714968</t>
-        </is>
-      </c>
-      <c r="C24" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D24" s="124" t="n"/>
-      <c r="E24" s="122" t="n">
-        <v>1684.6</v>
-      </c>
-      <c r="F24" s="122" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G24" s="122">
+      <c r="B24" s="121" t="inlineStr">
+        <is>
+          <t>9000619872</t>
+        </is>
+      </c>
+      <c r="C24" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528043</t>
+        </is>
+      </c>
+      <c r="D24" s="125" t="n"/>
+      <c r="E24" s="123" t="n">
+        <v>9661.200000000001</v>
+      </c>
+      <c r="F24" s="123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G24" s="123">
         <f>F24*E24</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="35" customHeight="1">
-      <c r="A25" s="123" t="n"/>
-      <c r="B25" s="120" t="inlineStr">
-        <is>
-          <t>9000714968</t>
-        </is>
-      </c>
-      <c r="C25" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D25" s="124" t="n"/>
-      <c r="E25" s="122" t="n">
-        <v>659.6</v>
-      </c>
-      <c r="F25" s="122" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G25" s="122">
+      <c r="A25" s="124" t="n"/>
+      <c r="B25" s="121" t="inlineStr">
+        <is>
+          <t>9000619872</t>
+        </is>
+      </c>
+      <c r="C25" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528043</t>
+        </is>
+      </c>
+      <c r="D25" s="125" t="n"/>
+      <c r="E25" s="123" t="n">
+        <v>666.5</v>
+      </c>
+      <c r="F25" s="123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G25" s="123">
         <f>F25*E25</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="35" customHeight="1">
-      <c r="A26" s="123" t="n"/>
-      <c r="B26" s="120" t="inlineStr">
-        <is>
-          <t>9000726360</t>
-        </is>
-      </c>
-      <c r="C26" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D26" s="124" t="n"/>
-      <c r="E26" s="122" t="n">
-        <v>10028.8</v>
-      </c>
-      <c r="F26" s="122" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G26" s="122">
+      <c r="A26" s="124" t="n"/>
+      <c r="B26" s="121" t="inlineStr">
+        <is>
+          <t>9000726362</t>
+        </is>
+      </c>
+      <c r="C26" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U756043</t>
+        </is>
+      </c>
+      <c r="D26" s="125" t="n"/>
+      <c r="E26" s="123" t="n">
+        <v>20041.1</v>
+      </c>
+      <c r="F26" s="123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G26" s="123">
         <f>F26*E26</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="35" customFormat="1" customHeight="1" s="1">
-      <c r="A27" s="123" t="n"/>
-      <c r="B27" s="120" t="inlineStr">
-        <is>
-          <t>9000706636</t>
-        </is>
-      </c>
-      <c r="C27" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D27" s="124" t="n"/>
-      <c r="E27" s="122" t="n">
-        <v>63222.4</v>
-      </c>
-      <c r="F27" s="122" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G27" s="122">
+      <c r="A27" s="124" t="n"/>
+      <c r="B27" s="121" t="inlineStr">
+        <is>
+          <t>9000719487</t>
+        </is>
+      </c>
+      <c r="C27" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D27" s="125" t="n"/>
+      <c r="E27" s="123" t="n">
+        <v>26685.3</v>
+      </c>
+      <c r="F27" s="123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G27" s="123">
         <f>F27*E27</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1">
-      <c r="A28" s="123" t="n"/>
-      <c r="B28" s="120" t="inlineStr">
-        <is>
-          <t>9000706636</t>
-        </is>
-      </c>
-      <c r="C28" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D28" s="124" t="n"/>
-      <c r="E28" s="122" t="n">
-        <v>2082.4</v>
-      </c>
-      <c r="F28" s="122" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G28" s="122">
+      <c r="A28" s="124" t="n"/>
+      <c r="B28" s="121" t="inlineStr">
+        <is>
+          <t>9000719487</t>
+        </is>
+      </c>
+      <c r="C28" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D28" s="126" t="n"/>
+      <c r="E28" s="123" t="n">
+        <v>751.4</v>
+      </c>
+      <c r="F28" s="123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G28" s="123">
         <f>F28*E28</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="35" customHeight="1">
-      <c r="A29" s="123" t="n"/>
-      <c r="B29" s="120" t="inlineStr">
-        <is>
-          <t>9000706636</t>
-        </is>
-      </c>
-      <c r="C29" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D29" s="124" t="n"/>
-      <c r="E29" s="122" t="n">
-        <v>2680.5</v>
-      </c>
-      <c r="F29" s="122" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G29" s="122">
-        <f>F29*E29</f>
+      <c r="A29" s="127" t="n"/>
+      <c r="B29" s="127" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="C29" s="127" t="inlineStr">
+        <is>
+          <t>8 PALLETS</t>
+        </is>
+      </c>
+      <c r="D29" s="127" t="n"/>
+      <c r="E29" s="128">
+        <f>SUM(E22:E28)</f>
         <v/>
       </c>
-    </row>
-    <row r="30" ht="35" customHeight="1">
-      <c r="A30" s="123" t="n"/>
-      <c r="B30" s="120" t="inlineStr">
-        <is>
-          <t>9000722156</t>
-        </is>
-      </c>
-      <c r="C30" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D30" s="124" t="n"/>
-      <c r="E30" s="122" t="n">
-        <v>19366.2</v>
-      </c>
-      <c r="F30" s="122" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G30" s="122">
-        <f>F30*E30</f>
+      <c r="F29" s="127" t="n"/>
+      <c r="G29" s="128">
+        <f>SUM(G22:G28)</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="35" customHeight="1">
-      <c r="A31" s="123" t="n"/>
-      <c r="B31" s="120" t="inlineStr">
-        <is>
-          <t>9000722156</t>
-        </is>
-      </c>
-      <c r="C31" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D31" s="125" t="n"/>
-      <c r="E31" s="122" t="n">
-        <v>2367</v>
-      </c>
-      <c r="F31" s="122" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G31" s="122">
-        <f>F31*E31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" ht="35" customHeight="1">
-      <c r="A32" s="126" t="n"/>
-      <c r="B32" s="126" t="inlineStr">
-        <is>
-          <t>TOTAL:</t>
-        </is>
-      </c>
-      <c r="C32" s="126" t="inlineStr">
-        <is>
-          <t>39 PALLETS</t>
-        </is>
-      </c>
-      <c r="D32" s="126" t="n"/>
-      <c r="E32" s="127">
-        <f>SUM(E22:E31)</f>
-        <v/>
-      </c>
-      <c r="F32" s="126" t="n"/>
-      <c r="G32" s="127">
-        <f>SUM(G22:G31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" ht="27.75" customHeight="1">
-      <c r="A33" s="21" t="n"/>
-      <c r="B33" s="21" t="n"/>
-      <c r="C33" s="22" t="n"/>
-      <c r="D33" s="22" t="n"/>
-      <c r="E33" s="22" t="n"/>
-      <c r="F33" s="22" t="n"/>
-      <c r="G33" s="18" t="n"/>
+    <row r="30" ht="69.75" customHeight="1">
+      <c r="A30" s="21" t="n"/>
+      <c r="B30" s="21" t="n"/>
+      <c r="C30" s="22" t="n"/>
+      <c r="D30" s="22" t="n"/>
+      <c r="E30" s="22" t="n"/>
+      <c r="F30" s="22" t="n"/>
+      <c r="G30" s="18" t="n"/>
+      <c r="L30" s="49" t="n"/>
+      <c r="M30" s="50" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+    </row>
+    <row r="31" ht="42" customHeight="1">
+      <c r="A31" s="101" t="inlineStr">
+        <is>
+          <t>Country of Original Cambodia</t>
+        </is>
+      </c>
+      <c r="D31" s="101" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="33" t="n"/>
+      <c r="G31" s="96" t="n"/>
+      <c r="L31" s="49" t="n"/>
+      <c r="M31" s="50" t="n"/>
+      <c r="N31" s="51" t="n"/>
+      <c r="O31" s="51" t="n"/>
+    </row>
+    <row r="32" ht="61.5" customHeight="1">
+      <c r="A32" s="28" t="inlineStr">
+        <is>
+          <t>Manufacture:</t>
+        </is>
+      </c>
+      <c r="B32" s="102" t="inlineStr">
+        <is>
+          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
+XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
+        </is>
+      </c>
+      <c r="D32" s="102" t="n"/>
+      <c r="E32" s="102" t="n"/>
+      <c r="F32" s="4" t="n"/>
+      <c r="G32" s="96" t="n"/>
+      <c r="L32" s="49" t="n"/>
+      <c r="M32" s="50" t="n"/>
+      <c r="N32" s="51" t="n"/>
+      <c r="O32" s="51" t="n"/>
+    </row>
+    <row r="33" ht="42" customHeight="1">
+      <c r="A33" s="103" t="inlineStr">
+        <is>
+          <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
+                                                  /BANK OF CHINA PHNOM PENH BRANCH</t>
+        </is>
+      </c>
+      <c r="D33" s="103" t="n"/>
+      <c r="E33" s="103" t="n"/>
+      <c r="F33" s="103" t="n"/>
+      <c r="G33" s="96" t="n"/>
       <c r="L33" s="49" t="n"/>
       <c r="M33" s="50" t="n"/>
       <c r="N33" s="51" t="n"/>
       <c r="O33" s="51" t="n"/>
     </row>
-    <row r="34" ht="42" customHeight="1">
-      <c r="A34" s="101" t="inlineStr">
-        <is>
-          <t>Country of Original Cambodia</t>
-        </is>
-      </c>
-      <c r="D34" s="101" t="n"/>
-      <c r="E34" s="4" t="n"/>
-      <c r="F34" s="33" t="n"/>
-      <c r="G34" s="96" t="n"/>
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="A34" s="99" t="inlineStr">
+        <is>
+          <t>A/C NO:100001100764430</t>
+        </is>
+      </c>
       <c r="L34" s="49" t="n"/>
       <c r="M34" s="50" t="n"/>
       <c r="N34" s="51" t="n"/>
       <c r="O34" s="51" t="n"/>
     </row>
-    <row r="35" ht="61.5" customHeight="1">
-      <c r="A35" s="28" t="inlineStr">
-        <is>
-          <t>Manufacture:</t>
-        </is>
-      </c>
-      <c r="B35" s="102" t="inlineStr">
-        <is>
-          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
-XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
-        </is>
-      </c>
-      <c r="D35" s="102" t="n"/>
-      <c r="E35" s="102" t="n"/>
-      <c r="F35" s="4" t="n"/>
-      <c r="G35" s="96" t="n"/>
+    <row r="35" ht="27" customHeight="1">
+      <c r="A35" s="99" t="inlineStr">
+        <is>
+          <t>SWIFT CODE  ：BKCHKHPPXXX</t>
+        </is>
+      </c>
       <c r="L35" s="49" t="n"/>
       <c r="M35" s="50" t="n"/>
       <c r="N35" s="51" t="n"/>
       <c r="O35" s="51" t="n"/>
     </row>
-    <row r="36" ht="42" customHeight="1">
-      <c r="A36" s="103" t="inlineStr">
-        <is>
-          <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED PHNOM PENH BRANCH
-                                                  /BANK OF CHINA PHNOM PENH BRANCH</t>
-        </is>
-      </c>
-      <c r="D36" s="103" t="n"/>
-      <c r="E36" s="103" t="n"/>
-      <c r="F36" s="103" t="n"/>
-      <c r="G36" s="96" t="n"/>
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="E36" s="81" t="inlineStr">
+        <is>
+          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
+        </is>
+      </c>
+      <c r="F36" s="81" t="n"/>
+      <c r="G36" s="81" t="n"/>
+      <c r="H36" s="81" t="n"/>
       <c r="L36" s="49" t="n"/>
       <c r="M36" s="50" t="n"/>
       <c r="N36" s="51" t="n"/>
       <c r="O36" s="51" t="n"/>
     </row>
-    <row r="37" ht="24.75" customHeight="1">
-      <c r="A37" s="99" t="inlineStr">
-        <is>
-          <t>A/C NO:100001100764430</t>
-        </is>
-      </c>
+    <row r="37" ht="21" customHeight="1">
+      <c r="D37" s="78" t="n"/>
+      <c r="E37" s="76" t="n"/>
+      <c r="F37" s="79" t="inlineStr">
+        <is>
+          <t>Sign &amp; Stamp</t>
+        </is>
+      </c>
+      <c r="G37" s="80" t="n"/>
       <c r="L37" s="49" t="n"/>
       <c r="M37" s="50" t="n"/>
       <c r="N37" s="51" t="n"/>
       <c r="O37" s="51" t="n"/>
     </row>
-    <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="99" t="inlineStr">
-        <is>
-          <t>SWIFT CODE  ：BKCHKHPPXXX</t>
-        </is>
-      </c>
+    <row r="38" ht="21" customHeight="1">
+      <c r="D38" s="78" t="n"/>
+      <c r="E38" s="76" t="n"/>
+      <c r="F38" s="76" t="n"/>
+      <c r="G38" s="80" t="n"/>
       <c r="L38" s="49" t="n"/>
       <c r="M38" s="50" t="n"/>
       <c r="N38" s="51" t="n"/>
       <c r="O38" s="51" t="n"/>
     </row>
     <row r="39" ht="21" customHeight="1">
-      <c r="E39" s="81" t="inlineStr">
-        <is>
-          <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
-        </is>
-      </c>
-      <c r="F39" s="81" t="n"/>
-      <c r="G39" s="81" t="n"/>
-      <c r="H39" s="81" t="n"/>
+      <c r="D39" s="78" t="n"/>
+      <c r="E39" s="76" t="n"/>
+      <c r="F39" s="76" t="n"/>
+      <c r="G39" s="80" t="n"/>
       <c r="L39" s="49" t="n"/>
       <c r="M39" s="50" t="n"/>
       <c r="N39" s="51" t="n"/>
@@ -2877,50 +2770,34 @@
     <row r="40" ht="21" customHeight="1">
       <c r="D40" s="78" t="n"/>
       <c r="E40" s="76" t="n"/>
-      <c r="F40" s="79" t="inlineStr">
-        <is>
-          <t>Sign &amp; Stamp</t>
-        </is>
-      </c>
-      <c r="G40" s="80" t="n"/>
+      <c r="F40" s="77" t="inlineStr">
+        <is>
+          <t>ZENG XUELI</t>
+        </is>
+      </c>
+      <c r="G40" s="77" t="n"/>
       <c r="L40" s="49" t="n"/>
       <c r="M40" s="50" t="n"/>
       <c r="N40" s="51" t="n"/>
       <c r="O40" s="51" t="n"/>
     </row>
     <row r="41" ht="21" customHeight="1">
-      <c r="D41" s="78" t="n"/>
-      <c r="E41" s="76" t="n"/>
-      <c r="F41" s="76" t="n"/>
-      <c r="G41" s="80" t="n"/>
-      <c r="L41" s="49" t="n"/>
-      <c r="M41" s="50" t="n"/>
-      <c r="N41" s="51" t="n"/>
-      <c r="O41" s="51" t="n"/>
+      <c r="D41" s="74" t="n"/>
+      <c r="E41" s="74" t="n"/>
+      <c r="F41" s="74" t="n"/>
+      <c r="G41" s="75" t="n"/>
     </row>
     <row r="42" ht="21" customHeight="1">
-      <c r="D42" s="78" t="n"/>
-      <c r="E42" s="76" t="n"/>
-      <c r="F42" s="76" t="n"/>
-      <c r="G42" s="80" t="n"/>
-      <c r="L42" s="49" t="n"/>
-      <c r="M42" s="50" t="n"/>
-      <c r="N42" s="51" t="n"/>
-      <c r="O42" s="51" t="n"/>
+      <c r="D42" s="74" t="n"/>
+      <c r="E42" s="74" t="n"/>
+      <c r="F42" s="74" t="n"/>
+      <c r="G42" s="75" t="n"/>
     </row>
     <row r="43" ht="21" customHeight="1">
-      <c r="D43" s="78" t="n"/>
-      <c r="E43" s="76" t="n"/>
-      <c r="F43" s="77" t="inlineStr">
-        <is>
-          <t>ZENG XUELI</t>
-        </is>
-      </c>
-      <c r="G43" s="77" t="n"/>
-      <c r="L43" s="49" t="n"/>
-      <c r="M43" s="50" t="n"/>
-      <c r="N43" s="51" t="n"/>
-      <c r="O43" s="51" t="n"/>
+      <c r="D43" s="74" t="n"/>
+      <c r="E43" s="74" t="n"/>
+      <c r="F43" s="74" t="n"/>
+      <c r="G43" s="75" t="n"/>
     </row>
     <row r="44" ht="21" customHeight="1">
       <c r="D44" s="74" t="n"/>
@@ -2976,24 +2853,9 @@
       <c r="F52" s="74" t="n"/>
       <c r="G52" s="75" t="n"/>
     </row>
-    <row r="53">
-      <c r="D53" s="74" t="n"/>
-      <c r="E53" s="74" t="n"/>
-      <c r="F53" s="74" t="n"/>
-      <c r="G53" s="75" t="n"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="74" t="n"/>
-      <c r="E54" s="74" t="n"/>
-      <c r="F54" s="74" t="n"/>
-      <c r="G54" s="75" t="n"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="74" t="n"/>
-      <c r="E55" s="74" t="n"/>
-      <c r="F55" s="74" t="n"/>
-      <c r="G55" s="75" t="n"/>
-    </row>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58"/>
@@ -3141,19 +3003,19 @@
     <row r="200"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B32"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:G6"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="B29"/>
+    <mergeCell ref="A35:G35"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:G34"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D22:D31"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A37:G37"/>
   </mergeCells>
   <conditionalFormatting sqref="J23:J35">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
@@ -3266,7 +3128,7 @@
       </c>
       <c r="I7" s="87" t="inlineStr">
         <is>
-          <t>sdfasdf</t>
+          <t>CLF2025-151</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3152,7 @@
       </c>
       <c r="I8" s="85" t="inlineStr">
         <is>
-          <t>asdfafd</t>
+          <t>JF25034</t>
         </is>
       </c>
     </row>
@@ -3308,10 +3170,8 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="I9" s="88" t="inlineStr">
-        <is>
-          <t>sdfasdf</t>
-        </is>
+      <c r="I9" s="118" t="n">
+        <v>45840</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
@@ -3460,2046 +3320,729 @@
       <c r="B20" s="65" t="n"/>
     </row>
     <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="118" t="inlineStr">
+      <c r="A21" s="119" t="inlineStr">
         <is>
           <t>Mark &amp; Nº</t>
         </is>
       </c>
-      <c r="B21" s="118" t="inlineStr">
+      <c r="B21" s="119" t="inlineStr">
         <is>
           <t>P.O Nº</t>
         </is>
       </c>
-      <c r="C21" s="118" t="inlineStr">
+      <c r="C21" s="119" t="inlineStr">
         <is>
           <t>ITEM Nº</t>
         </is>
       </c>
-      <c r="D21" s="118" t="inlineStr">
+      <c r="D21" s="119" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E21" s="118" t="inlineStr">
+      <c r="E21" s="119" t="inlineStr">
         <is>
           <t>Quantity(SF)</t>
         </is>
       </c>
       <c r="F21" s="113" t="n"/>
-      <c r="G21" s="118" t="inlineStr">
+      <c r="G21" s="119" t="inlineStr">
         <is>
           <t>G.W (kgs)</t>
         </is>
       </c>
-      <c r="H21" s="118" t="inlineStr">
+      <c r="H21" s="119" t="inlineStr">
         <is>
           <t>N.W (kgs)</t>
         </is>
       </c>
-      <c r="I21" s="118" t="inlineStr">
+      <c r="I21" s="119" t="inlineStr">
         <is>
           <t>CBM</t>
         </is>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="125" t="n"/>
-      <c r="B22" s="125" t="n"/>
-      <c r="C22" s="125" t="n"/>
-      <c r="D22" s="125" t="n"/>
-      <c r="E22" s="118" t="inlineStr">
+      <c r="A22" s="126" t="n"/>
+      <c r="B22" s="126" t="n"/>
+      <c r="C22" s="126" t="n"/>
+      <c r="D22" s="126" t="n"/>
+      <c r="E22" s="119" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="F22" s="118" t="inlineStr">
+      <c r="F22" s="119" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="G22" s="125" t="n"/>
-      <c r="H22" s="125" t="n"/>
-      <c r="I22" s="125" t="n"/>
+      <c r="G22" s="126" t="n"/>
+      <c r="H22" s="126" t="n"/>
+      <c r="I22" s="126" t="n"/>
     </row>
     <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="128" t="inlineStr">
+      <c r="A23" s="129" t="inlineStr">
         <is>
           <t>VENDOR#:</t>
         </is>
       </c>
-      <c r="B23" s="120" t="inlineStr">
-        <is>
-          <t>9000684226</t>
-        </is>
-      </c>
-      <c r="C23" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U756071</t>
-        </is>
-      </c>
-      <c r="D23" s="120" t="inlineStr">
+      <c r="B23" s="121" t="inlineStr">
+        <is>
+          <t>9000675121</t>
+        </is>
+      </c>
+      <c r="C23" s="121" t="inlineStr">
+        <is>
+          <t>01.10.O6509</t>
+        </is>
+      </c>
+      <c r="D23" s="121" t="inlineStr">
         <is>
           <t>LEATHER</t>
         </is>
       </c>
-      <c r="E23" s="129" t="n">
+      <c r="E23" s="130" t="n">
+        <v>175</v>
+      </c>
+      <c r="F23" s="123" t="n">
+        <v>10286</v>
+      </c>
+      <c r="G23" s="123" t="n">
+        <v>977</v>
+      </c>
+      <c r="H23" s="123" t="n">
+        <v>932</v>
+      </c>
+      <c r="I23" s="131" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1">
+      <c r="A24" s="132" t="inlineStr">
+        <is>
+          <t>Des: LEATHER</t>
+        </is>
+      </c>
+      <c r="B24" s="121" t="inlineStr">
+        <is>
+          <t>9000675121</t>
+        </is>
+      </c>
+      <c r="C24" s="121" t="inlineStr">
+        <is>
+          <t>01.10.O6509</t>
+        </is>
+      </c>
+      <c r="D24" s="125" t="n"/>
+      <c r="E24" s="130" t="n">
+        <v>178</v>
+      </c>
+      <c r="F24" s="123" t="n">
+        <v>10415.2</v>
+      </c>
+      <c r="G24" s="123" t="n">
+        <v>981.9503</v>
+      </c>
+      <c r="H24" s="123" t="n">
+        <v>937.6961</v>
+      </c>
+      <c r="I24" s="131" t="n">
+        <v>2.8039</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1">
+      <c r="A25" s="132" t="inlineStr">
+        <is>
+          <t>Case Qty:</t>
+        </is>
+      </c>
+      <c r="B25" s="121" t="inlineStr">
+        <is>
+          <t>9000675121</t>
+        </is>
+      </c>
+      <c r="C25" s="121" t="inlineStr">
+        <is>
+          <t>01.10.O6509</t>
+        </is>
+      </c>
+      <c r="D25" s="125" t="n"/>
+      <c r="E25" s="130" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="123" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="G25" s="123" t="n">
+        <v>16.5497</v>
+      </c>
+      <c r="H25" s="123" t="n">
+        <v>15.8039</v>
+      </c>
+      <c r="I25" s="131" t="n">
+        <v>0.0473</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1">
+      <c r="A26" s="132" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B26" s="121" t="inlineStr">
+        <is>
+          <t>9000619872</t>
+        </is>
+      </c>
+      <c r="C26" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528043</t>
+        </is>
+      </c>
+      <c r="D26" s="125" t="n"/>
+      <c r="E26" s="130" t="n">
         <v>190</v>
       </c>
-      <c r="F23" s="122" t="n">
-        <v>10209.3</v>
-      </c>
-      <c r="G23" s="122" t="n">
-        <v>813.5</v>
-      </c>
-      <c r="H23" s="122" t="n">
-        <v>768.5</v>
-      </c>
-      <c r="I23" s="130" t="n">
-        <v>2.574</v>
-      </c>
-    </row>
-    <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="131" t="inlineStr">
-        <is>
-          <t>Des: LEATHER</t>
-        </is>
-      </c>
-      <c r="B24" s="120" t="inlineStr">
-        <is>
-          <t>9000684226</t>
-        </is>
-      </c>
-      <c r="C24" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U756071</t>
-        </is>
-      </c>
-      <c r="D24" s="124" t="n"/>
-      <c r="E24" s="129" t="n">
-        <v>135</v>
-      </c>
-      <c r="F24" s="122" t="n">
-        <v>7398.2</v>
-      </c>
-      <c r="G24" s="122" t="n">
-        <v>613.5</v>
-      </c>
-      <c r="H24" s="122" t="n">
-        <v>568.5</v>
-      </c>
-      <c r="I24" s="130" t="n">
-        <v>2.1384</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="131" t="inlineStr">
-        <is>
-          <t>Case Qty:</t>
-        </is>
-      </c>
-      <c r="B25" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C25" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D25" s="124" t="n"/>
-      <c r="E25" s="129" t="n">
+      <c r="F26" s="123" t="n">
+        <v>9661.200000000001</v>
+      </c>
+      <c r="G26" s="123" t="n">
+        <v>860.9662</v>
+      </c>
+      <c r="H26" s="123" t="n">
+        <v>819.6618</v>
+      </c>
+      <c r="I26" s="131" t="n">
+        <v>2.4717</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1">
+      <c r="A27" s="132" t="n"/>
+      <c r="B27" s="121" t="inlineStr">
+        <is>
+          <t>9000619872</t>
+        </is>
+      </c>
+      <c r="C27" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U528043</t>
+        </is>
+      </c>
+      <c r="D27" s="125" t="n"/>
+      <c r="E27" s="130" t="n">
+        <v>17</v>
+      </c>
+      <c r="F27" s="123" t="n">
+        <v>666.5</v>
+      </c>
+      <c r="G27" s="123" t="n">
+        <v>77.0338</v>
+      </c>
+      <c r="H27" s="123" t="n">
+        <v>73.3382</v>
+      </c>
+      <c r="I27" s="131" t="n">
+        <v>0.2211</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1">
+      <c r="A28" s="132" t="n"/>
+      <c r="B28" s="121" t="n">
+        <v>9000726362</v>
+      </c>
+      <c r="C28" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U756043</t>
+        </is>
+      </c>
+      <c r="D28" s="125" t="n"/>
+      <c r="E28" s="130" t="n">
+        <v>190</v>
+      </c>
+      <c r="F28" s="123" t="n">
+        <v>10000.3</v>
+      </c>
+      <c r="G28" s="123" t="n">
+        <v>815</v>
+      </c>
+      <c r="H28" s="123" t="n">
+        <v>770</v>
+      </c>
+      <c r="I28" s="131" t="n">
+        <v>2.6136</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1">
+      <c r="A29" s="132" t="n"/>
+      <c r="B29" s="121" t="n">
+        <v>9000726362</v>
+      </c>
+      <c r="C29" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U756043</t>
+        </is>
+      </c>
+      <c r="D29" s="125" t="n"/>
+      <c r="E29" s="130" t="n">
+        <v>195</v>
+      </c>
+      <c r="F29" s="123" t="n">
+        <v>10040.8</v>
+      </c>
+      <c r="G29" s="123" t="n">
+        <v>824</v>
+      </c>
+      <c r="H29" s="123" t="n">
+        <v>779</v>
+      </c>
+      <c r="I29" s="131" t="n">
+        <v>2.4948</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1">
+      <c r="A30" s="132" t="n"/>
+      <c r="B30" s="121" t="n">
+        <v>9000719487</v>
+      </c>
+      <c r="C30" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D30" s="125" t="n"/>
+      <c r="E30" s="130" t="n">
         <v>200</v>
       </c>
-      <c r="F25" s="122" t="n">
-        <v>10724.7</v>
-      </c>
-      <c r="G25" s="122" t="n">
-        <v>880.5</v>
-      </c>
-      <c r="H25" s="122" t="n">
-        <v>835.5</v>
-      </c>
-      <c r="I25" s="130" t="n">
-        <v>2.6532</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1">
-      <c r="A26" s="131" t="inlineStr">
-        <is>
-          <t>MADE IN CAMBODIA</t>
-        </is>
-      </c>
-      <c r="B26" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C26" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D26" s="124" t="n"/>
-      <c r="E26" s="129" t="n">
-        <v>200</v>
-      </c>
-      <c r="F26" s="122" t="n">
-        <v>10687.2</v>
-      </c>
-      <c r="G26" s="122" t="n">
-        <v>861</v>
-      </c>
-      <c r="H26" s="122" t="n">
-        <v>816</v>
-      </c>
-      <c r="I26" s="130" t="n">
-        <v>2.4948</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1">
-      <c r="A27" s="131" t="n"/>
-      <c r="B27" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C27" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D27" s="124" t="n"/>
-      <c r="E27" s="129" t="n">
-        <v>133</v>
-      </c>
-      <c r="F27" s="122" t="n">
-        <v>7188.2</v>
-      </c>
-      <c r="G27" s="122" t="n">
-        <v>598.0074</v>
-      </c>
-      <c r="H27" s="122" t="n">
-        <v>553.6741</v>
-      </c>
-      <c r="I27" s="130" t="n">
-        <v>2.2628</v>
-      </c>
-    </row>
-    <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="131" t="n"/>
-      <c r="B28" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C28" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D28" s="124" t="n"/>
-      <c r="E28" s="129" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="122" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="G28" s="122" t="n">
-        <v>8.992599999999999</v>
-      </c>
-      <c r="H28" s="122" t="n">
-        <v>8.325900000000001</v>
-      </c>
-      <c r="I28" s="130" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="29" ht="27" customHeight="1">
-      <c r="A29" s="131" t="n"/>
-      <c r="B29" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C29" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D29" s="124" t="n"/>
-      <c r="E29" s="129" t="n">
-        <v>213</v>
-      </c>
-      <c r="F29" s="122" t="n">
-        <v>11507.9</v>
-      </c>
-      <c r="G29" s="122" t="n">
-        <v>934</v>
-      </c>
-      <c r="H29" s="122" t="n">
-        <v>889</v>
-      </c>
-      <c r="I29" s="130" t="n">
-        <v>2.6532</v>
-      </c>
-    </row>
-    <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="131" t="n"/>
-      <c r="B30" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C30" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D30" s="124" t="n"/>
-      <c r="E30" s="129" t="n">
-        <v>200</v>
-      </c>
-      <c r="F30" s="122" t="n">
-        <v>10652.9</v>
-      </c>
-      <c r="G30" s="122" t="n">
-        <v>872</v>
-      </c>
-      <c r="H30" s="122" t="n">
-        <v>827</v>
-      </c>
-      <c r="I30" s="130" t="n">
-        <v>2.772</v>
+      <c r="F30" s="123" t="n">
+        <v>10764.4</v>
+      </c>
+      <c r="G30" s="123" t="n">
+        <v>727.5</v>
+      </c>
+      <c r="H30" s="123" t="n">
+        <v>682.5</v>
+      </c>
+      <c r="I30" s="131" t="n">
+        <v>2.6136</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="131" t="n"/>
-      <c r="B31" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C31" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D31" s="124" t="n"/>
-      <c r="E31" s="129" t="n">
-        <v>205</v>
-      </c>
-      <c r="F31" s="122" t="n">
-        <v>10823.2</v>
-      </c>
-      <c r="G31" s="122" t="n">
-        <v>884.5</v>
-      </c>
-      <c r="H31" s="122" t="n">
-        <v>839.5</v>
-      </c>
-      <c r="I31" s="130" t="n">
-        <v>2.574</v>
+      <c r="A31" s="132" t="n"/>
+      <c r="B31" s="121" t="n">
+        <v>9000719487</v>
+      </c>
+      <c r="C31" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D31" s="125" t="n"/>
+      <c r="E31" s="130" t="n">
+        <v>190</v>
+      </c>
+      <c r="F31" s="123" t="n">
+        <v>10024.5</v>
+      </c>
+      <c r="G31" s="123" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="H31" s="123" t="n">
+        <v>624.5</v>
+      </c>
+      <c r="I31" s="131" t="n">
+        <v>2.376</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1">
-      <c r="A32" s="131" t="n"/>
-      <c r="B32" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C32" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D32" s="124" t="n"/>
-      <c r="E32" s="129" t="n">
-        <v>195</v>
-      </c>
-      <c r="F32" s="122" t="n">
-        <v>10340.1</v>
-      </c>
-      <c r="G32" s="122" t="n">
-        <v>845</v>
-      </c>
-      <c r="H32" s="122" t="n">
-        <v>800</v>
-      </c>
-      <c r="I32" s="130" t="n">
-        <v>2.4948</v>
+      <c r="A32" s="132" t="n"/>
+      <c r="B32" s="121" t="n">
+        <v>9000719487</v>
+      </c>
+      <c r="C32" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D32" s="125" t="n"/>
+      <c r="E32" s="130" t="n">
+        <v>106</v>
+      </c>
+      <c r="F32" s="123" t="n">
+        <v>5625.6</v>
+      </c>
+      <c r="G32" s="123" t="n">
+        <v>371</v>
+      </c>
+      <c r="H32" s="123" t="n">
+        <v>334.5878</v>
+      </c>
+      <c r="I32" s="131" t="n">
+        <v>1.3778</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1">
-      <c r="A33" s="131" t="n"/>
-      <c r="B33" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C33" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D33" s="124" t="n"/>
-      <c r="E33" s="129" t="n">
-        <v>190</v>
-      </c>
-      <c r="F33" s="122" t="n">
-        <v>10124.5</v>
-      </c>
-      <c r="G33" s="122" t="n">
-        <v>807.9567</v>
-      </c>
-      <c r="H33" s="122" t="n">
-        <v>766.851</v>
-      </c>
-      <c r="I33" s="130" t="n">
-        <v>2.3874</v>
+      <c r="A33" s="132" t="n"/>
+      <c r="B33" s="121" t="n">
+        <v>9000719487</v>
+      </c>
+      <c r="C33" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D33" s="125" t="n"/>
+      <c r="E33" s="130" t="n">
+        <v>19</v>
+      </c>
+      <c r="F33" s="123" t="n">
+        <v>751.4</v>
+      </c>
+      <c r="G33" s="123" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="H33" s="123" t="n">
+        <v>59.9733</v>
+      </c>
+      <c r="I33" s="131" t="n">
+        <v>0.247</v>
       </c>
     </row>
     <row r="34" ht="27" customHeight="1">
-      <c r="A34" s="131" t="n"/>
-      <c r="B34" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C34" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D34" s="124" t="n"/>
-      <c r="E34" s="129" t="n">
-        <v>18</v>
-      </c>
-      <c r="F34" s="122" t="n">
-        <v>721.2</v>
-      </c>
-      <c r="G34" s="122" t="n">
-        <v>76.5433</v>
-      </c>
-      <c r="H34" s="122" t="n">
-        <v>72.649</v>
-      </c>
-      <c r="I34" s="130" t="n">
-        <v>0.2262</v>
+      <c r="A34" s="132" t="n"/>
+      <c r="B34" s="121" t="n">
+        <v>9000719487</v>
+      </c>
+      <c r="C34" s="121" t="inlineStr">
+        <is>
+          <t>01.10.U722233</t>
+        </is>
+      </c>
+      <c r="D34" s="126" t="n"/>
+      <c r="E34" s="130" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" s="123" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="G34" s="123" t="n">
+        <v>21</v>
+      </c>
+      <c r="H34" s="123" t="n">
+        <v>18.9389</v>
+      </c>
+      <c r="I34" s="131" t="n">
+        <v>0.078</v>
       </c>
     </row>
     <row r="35" ht="27" customHeight="1">
-      <c r="A35" s="131" t="n"/>
-      <c r="B35" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C35" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D35" s="124" t="n"/>
-      <c r="E35" s="129" t="n">
-        <v>195</v>
-      </c>
-      <c r="F35" s="122" t="n">
-        <v>10519.3</v>
-      </c>
-      <c r="G35" s="122" t="n">
-        <v>867.5</v>
-      </c>
-      <c r="H35" s="122" t="n">
-        <v>822.5</v>
-      </c>
-      <c r="I35" s="130" t="n">
-        <v>2.376</v>
-      </c>
+      <c r="A35" s="132" t="n"/>
+      <c r="B35" s="121" t="inlineStr">
+        <is>
+          <t>LEATHER (HS.CODE: 4107.12.00)</t>
+        </is>
+      </c>
+      <c r="C35" s="113" t="n"/>
+      <c r="D35" s="122" t="n"/>
+      <c r="E35" s="130" t="n"/>
+      <c r="F35" s="123" t="n"/>
+      <c r="G35" s="123" t="n"/>
+      <c r="H35" s="123" t="n"/>
+      <c r="I35" s="131" t="n"/>
     </row>
     <row r="36" ht="27" customHeight="1">
-      <c r="A36" s="131" t="n"/>
-      <c r="B36" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C36" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D36" s="124" t="n"/>
-      <c r="E36" s="129" t="n">
-        <v>200</v>
-      </c>
-      <c r="F36" s="122" t="n">
-        <v>10625.2</v>
-      </c>
-      <c r="G36" s="122" t="n">
-        <v>868.5</v>
-      </c>
-      <c r="H36" s="122" t="n">
-        <v>823.5</v>
-      </c>
-      <c r="I36" s="130" t="n">
-        <v>2.4156</v>
-      </c>
-    </row>
-    <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="131" t="n"/>
-      <c r="B37" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C37" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D37" s="124" t="n"/>
-      <c r="E37" s="129" t="n">
-        <v>195</v>
-      </c>
-      <c r="F37" s="122" t="n">
-        <v>10195.5</v>
-      </c>
-      <c r="G37" s="122" t="n">
-        <v>843.5</v>
-      </c>
-      <c r="H37" s="122" t="n">
-        <v>798.5</v>
-      </c>
-      <c r="I37" s="130" t="n">
-        <v>2.2572</v>
-      </c>
-    </row>
-    <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="131" t="n"/>
-      <c r="B38" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C38" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D38" s="124" t="n"/>
-      <c r="E38" s="129" t="n">
-        <v>165</v>
-      </c>
-      <c r="F38" s="122" t="n">
-        <v>8854.9</v>
-      </c>
-      <c r="G38" s="122" t="n">
-        <v>717.6117</v>
-      </c>
-      <c r="H38" s="122" t="n">
-        <v>676.1313</v>
-      </c>
-      <c r="I38" s="130" t="n">
-        <v>2.0807</v>
-      </c>
-    </row>
-    <row r="39" ht="27" customHeight="1">
-      <c r="A39" s="131" t="n"/>
-      <c r="B39" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C39" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D39" s="124" t="n"/>
-      <c r="E39" s="129" t="n">
-        <v>14</v>
-      </c>
-      <c r="F39" s="122" t="n">
-        <v>566.9</v>
-      </c>
-      <c r="G39" s="122" t="n">
-        <v>60.8883</v>
-      </c>
-      <c r="H39" s="122" t="n">
-        <v>57.3687</v>
-      </c>
-      <c r="I39" s="130" t="n">
-        <v>0.1765</v>
-      </c>
-    </row>
-    <row r="40" ht="27" customHeight="1">
-      <c r="A40" s="131" t="n"/>
-      <c r="B40" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C40" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D40" s="124" t="n"/>
-      <c r="E40" s="129" t="n">
-        <v>171</v>
-      </c>
-      <c r="F40" s="122" t="n">
-        <v>8935.799999999999</v>
-      </c>
-      <c r="G40" s="122" t="n">
-        <v>719.625</v>
-      </c>
-      <c r="H40" s="122" t="n">
-        <v>679.5469000000001</v>
-      </c>
-      <c r="I40" s="130" t="n">
-        <v>2.2572</v>
-      </c>
-    </row>
-    <row r="41" ht="27" customHeight="1">
-      <c r="A41" s="131" t="n"/>
-      <c r="B41" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C41" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D41" s="124" t="n"/>
-      <c r="E41" s="129" t="n">
-        <v>8</v>
-      </c>
-      <c r="F41" s="122" t="n">
-        <v>316.9</v>
-      </c>
-      <c r="G41" s="122" t="n">
-        <v>33.6667</v>
-      </c>
-      <c r="H41" s="122" t="n">
-        <v>31.7917</v>
-      </c>
-      <c r="I41" s="130" t="n">
-        <v>0.1056</v>
-      </c>
-    </row>
-    <row r="42" ht="27" customHeight="1">
-      <c r="A42" s="131" t="n"/>
-      <c r="B42" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C42" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D42" s="124" t="n"/>
-      <c r="E42" s="129" t="n">
-        <v>13</v>
-      </c>
-      <c r="F42" s="122" t="n">
-        <v>659.6</v>
-      </c>
-      <c r="G42" s="122" t="n">
-        <v>54.7083</v>
-      </c>
-      <c r="H42" s="122" t="n">
-        <v>51.6615</v>
-      </c>
-      <c r="I42" s="130" t="n">
-        <v>0.1716</v>
-      </c>
-    </row>
-    <row r="43" ht="27" customHeight="1">
-      <c r="A43" s="131" t="n"/>
-      <c r="B43" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C43" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D43" s="124" t="n"/>
-      <c r="E43" s="129" t="n">
-        <v>31</v>
-      </c>
-      <c r="F43" s="122" t="n">
-        <v>1718.4</v>
-      </c>
-      <c r="G43" s="122" t="n">
-        <v>152</v>
-      </c>
-      <c r="H43" s="122" t="n">
-        <v>197</v>
-      </c>
-      <c r="I43" s="130" t="n">
-        <v>1.386</v>
-      </c>
-    </row>
-    <row r="44" ht="27" customHeight="1">
-      <c r="A44" s="131" t="n"/>
-      <c r="B44" s="120" t="n">
-        <v>9000726360</v>
-      </c>
-      <c r="C44" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D44" s="124" t="n"/>
-      <c r="E44" s="129" t="n">
-        <v>98</v>
-      </c>
-      <c r="F44" s="122" t="n">
-        <v>5010</v>
-      </c>
-      <c r="G44" s="122" t="n">
-        <v>488.5</v>
-      </c>
-      <c r="H44" s="122" t="n">
-        <v>443.5</v>
-      </c>
-      <c r="I44" s="130" t="n">
-        <v>1.584</v>
-      </c>
-    </row>
-    <row r="45" ht="27" customHeight="1">
-      <c r="A45" s="131" t="n"/>
-      <c r="B45" s="120" t="n">
-        <v>9000726360</v>
-      </c>
-      <c r="C45" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D45" s="124" t="n"/>
-      <c r="E45" s="129" t="n">
-        <v>95</v>
-      </c>
-      <c r="F45" s="122" t="n">
-        <v>5018.8</v>
-      </c>
-      <c r="G45" s="122" t="n">
-        <v>490.5</v>
-      </c>
-      <c r="H45" s="122" t="n">
-        <v>445.5</v>
-      </c>
-      <c r="I45" s="130" t="n">
-        <v>1.8216</v>
-      </c>
-    </row>
-    <row r="46" ht="27" customHeight="1">
-      <c r="A46" s="131" t="n"/>
-      <c r="B46" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C46" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D46" s="124" t="n"/>
-      <c r="E46" s="129" t="n">
-        <v>169</v>
-      </c>
-      <c r="F46" s="122" t="n">
-        <v>8994.299999999999</v>
-      </c>
-      <c r="G46" s="122" t="n">
-        <v>818.0235</v>
-      </c>
-      <c r="H46" s="122" t="n">
-        <v>782.3192</v>
-      </c>
-      <c r="I46" s="130" t="n">
-        <v>2.1365</v>
-      </c>
-    </row>
-    <row r="47" ht="27" customHeight="1">
-      <c r="A47" s="131" t="n"/>
-      <c r="B47" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C47" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D47" s="124" t="n"/>
-      <c r="E47" s="129" t="n">
-        <v>10</v>
-      </c>
-      <c r="F47" s="122" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="G47" s="122" t="n">
-        <v>48.4038</v>
-      </c>
-      <c r="H47" s="122" t="n">
-        <v>46.2911</v>
-      </c>
-      <c r="I47" s="130" t="n">
-        <v>0.1264</v>
-      </c>
-    </row>
-    <row r="48" ht="27" customHeight="1">
-      <c r="A48" s="131" t="n"/>
-      <c r="B48" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C48" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D48" s="124" t="n"/>
-      <c r="E48" s="129" t="n">
-        <v>34</v>
-      </c>
-      <c r="F48" s="122" t="n">
-        <v>1695.3</v>
-      </c>
-      <c r="G48" s="122" t="n">
-        <v>164.5728</v>
-      </c>
-      <c r="H48" s="122" t="n">
-        <v>157.3897</v>
-      </c>
-      <c r="I48" s="130" t="n">
-        <v>0.4298</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1">
-      <c r="A49" s="131" t="n"/>
-      <c r="B49" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C49" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D49" s="124" t="n"/>
-      <c r="E49" s="129" t="n">
-        <v>203</v>
-      </c>
-      <c r="F49" s="122" t="n">
-        <v>10947.2</v>
-      </c>
-      <c r="G49" s="122" t="n">
-        <v>1008</v>
-      </c>
-      <c r="H49" s="122" t="n">
-        <v>963</v>
-      </c>
-      <c r="I49" s="130" t="n">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="50" ht="27" customHeight="1">
-      <c r="A50" s="131" t="n"/>
-      <c r="B50" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C50" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D50" s="124" t="n"/>
-      <c r="E50" s="129" t="n">
-        <v>198</v>
-      </c>
-      <c r="F50" s="122" t="n">
-        <v>10962.5</v>
-      </c>
-      <c r="G50" s="122" t="n">
-        <v>1015.5</v>
-      </c>
-      <c r="H50" s="122" t="n">
-        <v>970.5</v>
-      </c>
-      <c r="I50" s="130" t="n">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="51" ht="27" customHeight="1">
-      <c r="A51" s="131" t="n"/>
-      <c r="B51" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C51" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D51" s="124" t="n"/>
-      <c r="E51" s="129" t="n">
-        <v>200</v>
-      </c>
-      <c r="F51" s="122" t="n">
-        <v>10895.3</v>
-      </c>
-      <c r="G51" s="122" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H51" s="122" t="n">
-        <v>955</v>
-      </c>
-      <c r="I51" s="130" t="n">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="52" ht="27" customHeight="1">
-      <c r="A52" s="131" t="n"/>
-      <c r="B52" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C52" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D52" s="124" t="n"/>
-      <c r="E52" s="129" t="n">
-        <v>195</v>
-      </c>
-      <c r="F52" s="122" t="n">
-        <v>10077.3</v>
-      </c>
-      <c r="G52" s="122" t="n">
-        <v>903.8876</v>
-      </c>
-      <c r="H52" s="122" t="n">
-        <v>863.6353</v>
-      </c>
-      <c r="I52" s="130" t="n">
-        <v>2.6567</v>
-      </c>
-    </row>
-    <row r="53" ht="27" customHeight="1">
-      <c r="A53" s="131" t="n"/>
-      <c r="B53" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C53" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D53" s="124" t="n"/>
-      <c r="E53" s="129" t="n">
-        <v>23</v>
-      </c>
-      <c r="F53" s="122" t="n">
-        <v>905.2</v>
-      </c>
-      <c r="G53" s="122" t="n">
-        <v>106.6124</v>
-      </c>
-      <c r="H53" s="122" t="n">
-        <v>101.8647</v>
-      </c>
-      <c r="I53" s="130" t="n">
-        <v>0.3133</v>
-      </c>
-    </row>
-    <row r="54" ht="27" customFormat="1" customHeight="1" s="1">
-      <c r="A54" s="131" t="n"/>
-      <c r="B54" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C54" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D54" s="124" t="n"/>
-      <c r="E54" s="129" t="n">
-        <v>160</v>
-      </c>
-      <c r="F54" s="122" t="n">
-        <v>8517.700000000001</v>
-      </c>
-      <c r="G54" s="122" t="n">
-        <v>790.1676</v>
-      </c>
-      <c r="H54" s="122" t="n">
-        <v>749.9441</v>
-      </c>
-      <c r="I54" s="130" t="n">
-        <v>2.4424</v>
-      </c>
-    </row>
-    <row r="55" ht="27" customHeight="1">
-      <c r="A55" s="131" t="n"/>
-      <c r="B55" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C55" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D55" s="124" t="n"/>
-      <c r="E55" s="129" t="n">
-        <v>19</v>
-      </c>
-      <c r="F55" s="122" t="n">
-        <v>985.2</v>
-      </c>
-      <c r="G55" s="122" t="n">
-        <v>93.83240000000001</v>
-      </c>
-      <c r="H55" s="122" t="n">
-        <v>89.05589999999999</v>
-      </c>
-      <c r="I55" s="130" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="56" ht="27" customHeight="1">
-      <c r="A56" s="131" t="n"/>
-      <c r="B56" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C56" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D56" s="124" t="n"/>
-      <c r="E56" s="129" t="n">
-        <v>51</v>
-      </c>
-      <c r="F56" s="122" t="n">
-        <v>2828.1</v>
-      </c>
-      <c r="G56" s="122" t="n">
-        <v>260.3873</v>
-      </c>
-      <c r="H56" s="122" t="n">
-        <v>228.0634</v>
-      </c>
-      <c r="I56" s="130" t="n">
-        <v>1.3369</v>
-      </c>
-    </row>
-    <row r="57" ht="27" customHeight="1">
-      <c r="A57" s="131" t="n"/>
-      <c r="B57" s="120" t="n">
-        <v>9000706636</v>
-      </c>
-      <c r="C57" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D57" s="124" t="n"/>
-      <c r="E57" s="129" t="n">
-        <v>20</v>
-      </c>
-      <c r="F57" s="122" t="n">
-        <v>782.6</v>
-      </c>
-      <c r="G57" s="122" t="n">
-        <v>102.1127</v>
-      </c>
-      <c r="H57" s="122" t="n">
-        <v>89.4366</v>
-      </c>
-      <c r="I57" s="130" t="n">
-        <v>0.5243</v>
-      </c>
-    </row>
-    <row r="58" ht="27" customHeight="1">
-      <c r="A58" s="131" t="n"/>
-      <c r="B58" s="120" t="n">
-        <v>9000722156</v>
-      </c>
-      <c r="C58" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D58" s="124" t="n"/>
-      <c r="E58" s="129" t="n">
-        <v>190</v>
-      </c>
-      <c r="F58" s="122" t="n">
-        <v>9986.6</v>
-      </c>
-      <c r="G58" s="122" t="n">
-        <v>914.2619</v>
-      </c>
-      <c r="H58" s="122" t="n">
-        <v>873.5476</v>
-      </c>
-      <c r="I58" s="130" t="n">
-        <v>2.5438</v>
-      </c>
-    </row>
-    <row r="59" ht="27" customHeight="1">
-      <c r="A59" s="131" t="n"/>
-      <c r="B59" s="120" t="n">
-        <v>9000722156</v>
-      </c>
-      <c r="C59" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D59" s="124" t="n"/>
-      <c r="E59" s="129" t="n">
-        <v>20</v>
-      </c>
-      <c r="F59" s="122" t="n">
-        <v>794.1</v>
-      </c>
-      <c r="G59" s="122" t="n">
-        <v>96.2381</v>
-      </c>
-      <c r="H59" s="122" t="n">
-        <v>91.9524</v>
-      </c>
-      <c r="I59" s="130" t="n">
-        <v>0.2678</v>
-      </c>
-    </row>
-    <row r="60" ht="27" customHeight="1">
-      <c r="A60" s="131" t="n"/>
-      <c r="B60" s="120" t="n">
-        <v>9000722156</v>
-      </c>
-      <c r="C60" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D60" s="124" t="n"/>
-      <c r="E60" s="129" t="n">
-        <v>180</v>
-      </c>
-      <c r="F60" s="122" t="n">
-        <v>9379.6</v>
-      </c>
-      <c r="G60" s="122" t="n">
-        <v>831.2727</v>
-      </c>
-      <c r="H60" s="122" t="n">
-        <v>794.4545000000001</v>
-      </c>
-      <c r="I60" s="130" t="n">
-        <v>2.2356</v>
-      </c>
-    </row>
-    <row r="61" ht="27" customHeight="1">
-      <c r="A61" s="131" t="n"/>
-      <c r="B61" s="120" t="n">
-        <v>9000722156</v>
-      </c>
-      <c r="C61" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U243022</t>
-        </is>
-      </c>
-      <c r="D61" s="125" t="n"/>
-      <c r="E61" s="129" t="n">
-        <v>40</v>
-      </c>
-      <c r="F61" s="122" t="n">
-        <v>1572.9</v>
-      </c>
-      <c r="G61" s="122" t="n">
-        <v>184.7273</v>
-      </c>
-      <c r="H61" s="122" t="n">
-        <v>176.5455</v>
-      </c>
-      <c r="I61" s="130" t="n">
-        <v>0.4968</v>
-      </c>
-    </row>
-    <row r="62" ht="27" customHeight="1">
-      <c r="A62" s="131" t="n"/>
-      <c r="B62" s="120" t="inlineStr">
-        <is>
-          <t>LEATHER (HS.CODE: 4107.12.00)</t>
-        </is>
-      </c>
-      <c r="C62" s="113" t="n"/>
-      <c r="D62" s="121" t="n"/>
-      <c r="E62" s="129" t="n"/>
-      <c r="F62" s="122" t="n"/>
-      <c r="G62" s="122" t="n"/>
-      <c r="H62" s="122" t="n"/>
-      <c r="I62" s="130" t="n"/>
-    </row>
-    <row r="63" ht="27" customHeight="1">
-      <c r="A63" s="126" t="n"/>
-      <c r="B63" s="126" t="inlineStr">
+      <c r="A36" s="127" t="n"/>
+      <c r="B36" s="127" t="inlineStr">
         <is>
           <t>TOTAL:</t>
         </is>
       </c>
-      <c r="C63" s="126" t="inlineStr">
-        <is>
-          <t>27 PALLETS</t>
-        </is>
-      </c>
-      <c r="D63" s="126" t="n"/>
-      <c r="E63" s="132">
-        <f>SUM(E23:E61)</f>
+      <c r="C36" s="127" t="inlineStr">
+        <is>
+          <t>8 PALLETS</t>
+        </is>
+      </c>
+      <c r="D36" s="127" t="n"/>
+      <c r="E36" s="133">
+        <f>SUM(E23:E34)</f>
         <v/>
       </c>
-      <c r="F63" s="127">
-        <f>SUM(F23:F61)</f>
+      <c r="F36" s="128">
+        <f>SUM(F23:F34)</f>
         <v/>
       </c>
-      <c r="G63" s="127">
-        <f>SUM(G23:G61)</f>
+      <c r="G36" s="128">
+        <f>SUM(G23:G34)</f>
         <v/>
       </c>
-      <c r="H63" s="127">
-        <f>SUM(H23:H61)</f>
+      <c r="H36" s="128">
+        <f>SUM(H23:H34)</f>
         <v/>
       </c>
-      <c r="I63" s="133">
-        <f>SUM(I23:I61)</f>
+      <c r="I36" s="134">
+        <f>SUM(I23:I34)</f>
         <v/>
       </c>
     </row>
-    <row r="64" ht="27" customHeight="1"/>
-    <row r="65" ht="27" customHeight="1">
-      <c r="A65" s="118" t="inlineStr">
-        <is>
-          <t>Mark &amp; Nº</t>
-        </is>
-      </c>
-      <c r="B65" s="118" t="inlineStr">
-        <is>
-          <t>P.O Nº</t>
-        </is>
-      </c>
-      <c r="C65" s="118" t="inlineStr">
-        <is>
-          <t>ITEM Nº</t>
-        </is>
-      </c>
-      <c r="D65" s="118" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="E65" s="118" t="inlineStr">
-        <is>
-          <t>Quantity(SF)</t>
-        </is>
-      </c>
-      <c r="F65" s="113" t="n"/>
-      <c r="G65" s="118" t="inlineStr">
-        <is>
-          <t>G.W (kgs)</t>
-        </is>
-      </c>
-      <c r="H65" s="118" t="inlineStr">
-        <is>
-          <t>N.W (kgs)</t>
-        </is>
-      </c>
-      <c r="I65" s="118" t="inlineStr">
-        <is>
-          <t>CBM</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" ht="27" customHeight="1">
-      <c r="A66" s="125" t="n"/>
-      <c r="B66" s="125" t="n"/>
-      <c r="C66" s="125" t="n"/>
-      <c r="D66" s="125" t="n"/>
-      <c r="E66" s="118" t="inlineStr">
-        <is>
-          <t>PCS</t>
-        </is>
-      </c>
-      <c r="F66" s="118" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="G66" s="125" t="n"/>
-      <c r="H66" s="125" t="n"/>
-      <c r="I66" s="125" t="n"/>
-    </row>
-    <row r="67" ht="27" customHeight="1">
-      <c r="A67" s="128" t="inlineStr">
-        <is>
-          <t>VENDOR#:</t>
-        </is>
-      </c>
-      <c r="B67" s="120" t="inlineStr">
-        <is>
-          <t>9000684226</t>
-        </is>
-      </c>
-      <c r="C67" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U756071</t>
-        </is>
-      </c>
-      <c r="D67" s="120" t="inlineStr">
-        <is>
-          <t>LEATHER</t>
-        </is>
-      </c>
-      <c r="E67" s="129" t="n">
-        <v>190</v>
-      </c>
-      <c r="F67" s="122" t="n">
-        <v>10209.3</v>
-      </c>
-      <c r="G67" s="122" t="n">
-        <v>813.5</v>
-      </c>
-      <c r="H67" s="122" t="n">
-        <v>768.5</v>
-      </c>
-      <c r="I67" s="130" t="n">
-        <v>2.574</v>
-      </c>
-    </row>
-    <row r="68" ht="27" customHeight="1">
-      <c r="A68" s="131" t="inlineStr">
-        <is>
-          <t>Des: LEATHER</t>
-        </is>
-      </c>
-      <c r="B68" s="120" t="inlineStr">
-        <is>
-          <t>9000684226</t>
-        </is>
-      </c>
-      <c r="C68" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U756071</t>
-        </is>
-      </c>
-      <c r="D68" s="124" t="n"/>
-      <c r="E68" s="129" t="n">
-        <v>135</v>
-      </c>
-      <c r="F68" s="122" t="n">
-        <v>7398.2</v>
-      </c>
-      <c r="G68" s="122" t="n">
-        <v>613.5</v>
-      </c>
-      <c r="H68" s="122" t="n">
-        <v>568.5</v>
-      </c>
-      <c r="I68" s="130" t="n">
-        <v>2.1384</v>
-      </c>
-    </row>
-    <row r="69" ht="27" customHeight="1">
-      <c r="A69" s="131" t="inlineStr">
-        <is>
-          <t>Case Qty:</t>
-        </is>
-      </c>
-      <c r="B69" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C69" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D69" s="124" t="n"/>
-      <c r="E69" s="129" t="n">
-        <v>200</v>
-      </c>
-      <c r="F69" s="122" t="n">
-        <v>10724.7</v>
-      </c>
-      <c r="G69" s="122" t="n">
-        <v>880.5</v>
-      </c>
-      <c r="H69" s="122" t="n">
-        <v>835.5</v>
-      </c>
-      <c r="I69" s="130" t="n">
-        <v>2.6532</v>
-      </c>
-    </row>
-    <row r="70" ht="27" customHeight="1">
-      <c r="A70" s="131" t="inlineStr">
-        <is>
-          <t>MADE IN CAMBODIA</t>
-        </is>
-      </c>
-      <c r="B70" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C70" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D70" s="125" t="n"/>
-      <c r="E70" s="129" t="n">
-        <v>200</v>
-      </c>
-      <c r="F70" s="122" t="n">
-        <v>10687.2</v>
-      </c>
-      <c r="G70" s="122" t="n">
-        <v>861</v>
-      </c>
-      <c r="H70" s="122" t="n">
-        <v>816</v>
-      </c>
-      <c r="I70" s="130" t="n">
-        <v>2.4948</v>
-      </c>
-    </row>
-    <row r="71" ht="27" customHeight="1">
-      <c r="A71" s="131" t="n"/>
-      <c r="B71" s="120" t="inlineStr">
-        <is>
-          <t>LEATHER (HS.CODE: 4107.12.00)</t>
-        </is>
-      </c>
-      <c r="C71" s="113" t="n"/>
-      <c r="D71" s="121" t="n"/>
-      <c r="E71" s="129" t="n"/>
-      <c r="F71" s="122" t="n"/>
-      <c r="G71" s="122" t="n"/>
-      <c r="H71" s="122" t="n"/>
-      <c r="I71" s="130" t="n"/>
-    </row>
-    <row r="72" ht="27" customHeight="1">
-      <c r="A72" s="126" t="n"/>
-      <c r="B72" s="126" t="inlineStr">
-        <is>
-          <t>TOTAL:</t>
-        </is>
-      </c>
-      <c r="C72" s="126" t="inlineStr">
-        <is>
-          <t>4 PALLETS</t>
-        </is>
-      </c>
-      <c r="D72" s="126" t="n"/>
-      <c r="E72" s="132">
-        <f>SUM(E67:E70)</f>
-        <v/>
-      </c>
-      <c r="F72" s="127">
-        <f>SUM(F67:F70)</f>
-        <v/>
-      </c>
-      <c r="G72" s="127">
-        <f>SUM(G67:G70)</f>
-        <v/>
-      </c>
-      <c r="H72" s="127">
-        <f>SUM(H67:H70)</f>
-        <v/>
-      </c>
-      <c r="I72" s="133">
-        <f>SUM(I67:I70)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" ht="27" customHeight="1"/>
-    <row r="74" ht="27" customHeight="1">
-      <c r="A74" s="118" t="inlineStr">
-        <is>
-          <t>Mark &amp; Nº</t>
-        </is>
-      </c>
-      <c r="B74" s="118" t="inlineStr">
-        <is>
-          <t>P.O Nº</t>
-        </is>
-      </c>
-      <c r="C74" s="118" t="inlineStr">
-        <is>
-          <t>ITEM Nº</t>
-        </is>
-      </c>
-      <c r="D74" s="118" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="E74" s="118" t="inlineStr">
-        <is>
-          <t>Quantity(SF)</t>
-        </is>
-      </c>
-      <c r="F74" s="113" t="n"/>
-      <c r="G74" s="118" t="inlineStr">
-        <is>
-          <t>G.W (kgs)</t>
-        </is>
-      </c>
-      <c r="H74" s="118" t="inlineStr">
-        <is>
-          <t>N.W (kgs)</t>
-        </is>
-      </c>
-      <c r="I74" s="118" t="inlineStr">
-        <is>
-          <t>CBM</t>
-        </is>
-      </c>
-    </row>
-    <row r="75" ht="27" customHeight="1">
-      <c r="A75" s="125" t="n"/>
-      <c r="B75" s="125" t="n"/>
-      <c r="C75" s="125" t="n"/>
-      <c r="D75" s="125" t="n"/>
-      <c r="E75" s="118" t="inlineStr">
-        <is>
-          <t>PCS</t>
-        </is>
-      </c>
-      <c r="F75" s="118" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="G75" s="125" t="n"/>
-      <c r="H75" s="125" t="n"/>
-      <c r="I75" s="125" t="n"/>
-    </row>
-    <row r="76" ht="27" customHeight="1">
-      <c r="A76" s="128" t="inlineStr">
-        <is>
-          <t>VENDOR#:</t>
-        </is>
-      </c>
-      <c r="B76" s="120" t="inlineStr">
-        <is>
-          <t>9000684226</t>
-        </is>
-      </c>
-      <c r="C76" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U756071</t>
-        </is>
-      </c>
-      <c r="D76" s="120" t="inlineStr">
-        <is>
-          <t>LEATHER</t>
-        </is>
-      </c>
-      <c r="E76" s="129" t="n">
-        <v>190</v>
-      </c>
-      <c r="F76" s="122" t="n">
-        <v>10209.3</v>
-      </c>
-      <c r="G76" s="122" t="n">
-        <v>813.5</v>
-      </c>
-      <c r="H76" s="122" t="n">
-        <v>768.5</v>
-      </c>
-      <c r="I76" s="130" t="n">
-        <v>2.574</v>
-      </c>
-    </row>
-    <row r="77" ht="27" customHeight="1">
-      <c r="A77" s="131" t="inlineStr">
-        <is>
-          <t>Des: LEATHER</t>
-        </is>
-      </c>
-      <c r="B77" s="120" t="inlineStr">
-        <is>
-          <t>9000684226</t>
-        </is>
-      </c>
-      <c r="C77" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U756071</t>
-        </is>
-      </c>
-      <c r="D77" s="124" t="n"/>
-      <c r="E77" s="129" t="n">
-        <v>135</v>
-      </c>
-      <c r="F77" s="122" t="n">
-        <v>7398.2</v>
-      </c>
-      <c r="G77" s="122" t="n">
-        <v>613.5</v>
-      </c>
-      <c r="H77" s="122" t="n">
-        <v>568.5</v>
-      </c>
-      <c r="I77" s="130" t="n">
-        <v>2.1384</v>
-      </c>
-    </row>
-    <row r="78" ht="27" customHeight="1">
-      <c r="A78" s="131" t="inlineStr">
-        <is>
-          <t>Case Qty:</t>
-        </is>
-      </c>
-      <c r="B78" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C78" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D78" s="124" t="n"/>
-      <c r="E78" s="129" t="n">
-        <v>200</v>
-      </c>
-      <c r="F78" s="122" t="n">
-        <v>10724.7</v>
-      </c>
-      <c r="G78" s="122" t="n">
-        <v>880.5</v>
-      </c>
-      <c r="H78" s="122" t="n">
-        <v>835.5</v>
-      </c>
-      <c r="I78" s="130" t="n">
-        <v>2.6532</v>
-      </c>
-    </row>
-    <row r="79" ht="27" customHeight="1">
-      <c r="A79" s="131" t="inlineStr">
-        <is>
-          <t>MADE IN CAMBODIA</t>
-        </is>
-      </c>
-      <c r="B79" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C79" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D79" s="125" t="n"/>
-      <c r="E79" s="129" t="n">
-        <v>200</v>
-      </c>
-      <c r="F79" s="122" t="n">
-        <v>10687.2</v>
-      </c>
-      <c r="G79" s="122" t="n">
-        <v>861</v>
-      </c>
-      <c r="H79" s="122" t="n">
-        <v>816</v>
-      </c>
-      <c r="I79" s="130" t="n">
-        <v>2.4948</v>
-      </c>
-    </row>
-    <row r="80" ht="27" customHeight="1">
-      <c r="A80" s="131" t="n"/>
-      <c r="B80" s="120" t="inlineStr">
-        <is>
-          <t>LEATHER (HS.CODE: 4107.12.00)</t>
-        </is>
-      </c>
-      <c r="C80" s="113" t="n"/>
-      <c r="D80" s="121" t="n"/>
-      <c r="E80" s="129" t="n"/>
-      <c r="F80" s="122" t="n"/>
-      <c r="G80" s="122" t="n"/>
-      <c r="H80" s="122" t="n"/>
-      <c r="I80" s="130" t="n"/>
-    </row>
-    <row r="81" ht="27" customHeight="1">
-      <c r="A81" s="126" t="n"/>
-      <c r="B81" s="126" t="inlineStr">
-        <is>
-          <t>TOTAL:</t>
-        </is>
-      </c>
-      <c r="C81" s="126" t="inlineStr">
-        <is>
-          <t>4 PALLETS</t>
-        </is>
-      </c>
-      <c r="D81" s="126" t="n"/>
-      <c r="E81" s="132">
-        <f>SUM(E76:E79)</f>
-        <v/>
-      </c>
-      <c r="F81" s="127">
-        <f>SUM(F76:F79)</f>
-        <v/>
-      </c>
-      <c r="G81" s="127">
-        <f>SUM(G76:G79)</f>
-        <v/>
-      </c>
-      <c r="H81" s="127">
-        <f>SUM(H76:H79)</f>
-        <v/>
-      </c>
-      <c r="I81" s="133">
-        <f>SUM(I76:I79)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" ht="27" customHeight="1"/>
-    <row r="83" ht="27" customHeight="1">
-      <c r="A83" s="118" t="inlineStr">
-        <is>
-          <t>Mark &amp; Nº</t>
-        </is>
-      </c>
-      <c r="B83" s="118" t="inlineStr">
-        <is>
-          <t>P.O Nº</t>
-        </is>
-      </c>
-      <c r="C83" s="118" t="inlineStr">
-        <is>
-          <t>ITEM Nº</t>
-        </is>
-      </c>
-      <c r="D83" s="118" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="E83" s="118" t="inlineStr">
-        <is>
-          <t>Quantity(SF)</t>
-        </is>
-      </c>
-      <c r="F83" s="113" t="n"/>
-      <c r="G83" s="118" t="inlineStr">
-        <is>
-          <t>G.W (kgs)</t>
-        </is>
-      </c>
-      <c r="H83" s="118" t="inlineStr">
-        <is>
-          <t>N.W (kgs)</t>
-        </is>
-      </c>
-      <c r="I83" s="118" t="inlineStr">
-        <is>
-          <t>CBM</t>
-        </is>
-      </c>
-    </row>
-    <row r="84" ht="27" customHeight="1">
-      <c r="A84" s="125" t="n"/>
-      <c r="B84" s="125" t="n"/>
-      <c r="C84" s="125" t="n"/>
-      <c r="D84" s="125" t="n"/>
-      <c r="E84" s="118" t="inlineStr">
-        <is>
-          <t>PCS</t>
-        </is>
-      </c>
-      <c r="F84" s="118" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="G84" s="125" t="n"/>
-      <c r="H84" s="125" t="n"/>
-      <c r="I84" s="125" t="n"/>
-    </row>
-    <row r="85" ht="27" customHeight="1">
-      <c r="A85" s="128" t="inlineStr">
-        <is>
-          <t>VENDOR#:</t>
-        </is>
-      </c>
-      <c r="B85" s="120" t="inlineStr">
-        <is>
-          <t>9000684226</t>
-        </is>
-      </c>
-      <c r="C85" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U756071</t>
-        </is>
-      </c>
-      <c r="D85" s="120" t="inlineStr">
-        <is>
-          <t>LEATHER</t>
-        </is>
-      </c>
-      <c r="E85" s="129" t="n">
-        <v>190</v>
-      </c>
-      <c r="F85" s="122" t="n">
-        <v>10209.3</v>
-      </c>
-      <c r="G85" s="122" t="n">
-        <v>813.5</v>
-      </c>
-      <c r="H85" s="122" t="n">
-        <v>768.5</v>
-      </c>
-      <c r="I85" s="130" t="n">
-        <v>2.574</v>
-      </c>
-    </row>
-    <row r="86" ht="27" customHeight="1">
-      <c r="A86" s="131" t="inlineStr">
-        <is>
-          <t>Des: LEATHER</t>
-        </is>
-      </c>
-      <c r="B86" s="120" t="inlineStr">
-        <is>
-          <t>9000684226</t>
-        </is>
-      </c>
-      <c r="C86" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U756071</t>
-        </is>
-      </c>
-      <c r="D86" s="124" t="n"/>
-      <c r="E86" s="129" t="n">
-        <v>135</v>
-      </c>
-      <c r="F86" s="122" t="n">
-        <v>7398.2</v>
-      </c>
-      <c r="G86" s="122" t="n">
-        <v>613.5</v>
-      </c>
-      <c r="H86" s="122" t="n">
-        <v>568.5</v>
-      </c>
-      <c r="I86" s="130" t="n">
-        <v>2.1384</v>
-      </c>
-    </row>
-    <row r="87" ht="27" customHeight="1">
-      <c r="A87" s="131" t="inlineStr">
-        <is>
-          <t>Case Qty:</t>
-        </is>
-      </c>
-      <c r="B87" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C87" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D87" s="124" t="n"/>
-      <c r="E87" s="129" t="n">
-        <v>200</v>
-      </c>
-      <c r="F87" s="122" t="n">
-        <v>10724.7</v>
-      </c>
-      <c r="G87" s="122" t="n">
-        <v>880.5</v>
-      </c>
-      <c r="H87" s="122" t="n">
-        <v>835.5</v>
-      </c>
-      <c r="I87" s="130" t="n">
-        <v>2.6532</v>
-      </c>
-    </row>
-    <row r="88" ht="27" customHeight="1">
-      <c r="A88" s="131" t="inlineStr">
-        <is>
-          <t>MADE IN CAMBODIA</t>
-        </is>
-      </c>
-      <c r="B88" s="120" t="n">
-        <v>9000714968</v>
-      </c>
-      <c r="C88" s="120" t="inlineStr">
-        <is>
-          <t>01.10.U528073</t>
-        </is>
-      </c>
-      <c r="D88" s="125" t="n"/>
-      <c r="E88" s="129" t="n">
-        <v>200</v>
-      </c>
-      <c r="F88" s="122" t="n">
-        <v>10687.2</v>
-      </c>
-      <c r="G88" s="122" t="n">
-        <v>861</v>
-      </c>
-      <c r="H88" s="122" t="n">
-        <v>816</v>
-      </c>
-      <c r="I88" s="130" t="n">
-        <v>2.4948</v>
-      </c>
-    </row>
-    <row r="89" ht="27" customHeight="1">
-      <c r="A89" s="131" t="n"/>
-      <c r="B89" s="120" t="inlineStr">
-        <is>
-          <t>LEATHER (HS.CODE: 4107.12.00)</t>
-        </is>
-      </c>
-      <c r="C89" s="113" t="n"/>
-      <c r="D89" s="121" t="n"/>
-      <c r="E89" s="129" t="n"/>
-      <c r="F89" s="122" t="n"/>
-      <c r="G89" s="122" t="n"/>
-      <c r="H89" s="122" t="n"/>
-      <c r="I89" s="130" t="n"/>
-    </row>
-    <row r="90" ht="27" customHeight="1">
-      <c r="A90" s="126" t="n"/>
-      <c r="B90" s="126" t="inlineStr">
-        <is>
-          <t>TOTAL:</t>
-        </is>
-      </c>
-      <c r="C90" s="126" t="inlineStr">
-        <is>
-          <t>4 PALLETS</t>
-        </is>
-      </c>
-      <c r="D90" s="126" t="n"/>
-      <c r="E90" s="132">
-        <f>SUM(E85:E88)</f>
-        <v/>
-      </c>
-      <c r="F90" s="127">
-        <f>SUM(F85:F88)</f>
-        <v/>
-      </c>
-      <c r="G90" s="127">
-        <f>SUM(G85:G88)</f>
-        <v/>
-      </c>
-      <c r="H90" s="127">
-        <f>SUM(H85:H88)</f>
-        <v/>
-      </c>
-      <c r="I90" s="133">
-        <f>SUM(I85:I88)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" ht="27" customHeight="1">
-      <c r="B91" s="134" t="inlineStr">
-        <is>
-          <t>TOTAL OF:</t>
-        </is>
-      </c>
-      <c r="C91" s="134" t="inlineStr">
-        <is>
-          <t>39 PALLETS</t>
-        </is>
-      </c>
-      <c r="E91" s="135">
-        <f>SUM(E23:E61,E67:E70,E76:E79,E85:E88)</f>
-        <v/>
-      </c>
-      <c r="F91" s="136">
-        <f>SUM(F23:F61,F67:F70,F76:F79,F85:F88)</f>
-        <v/>
-      </c>
-      <c r="G91" s="136">
-        <f>SUM(G23:G61,G67:G70,G76:G79,G85:G88)</f>
-        <v/>
-      </c>
-      <c r="H91" s="136">
-        <f>SUM(H23:H61,H67:H70,H76:H79,H85:H88)</f>
-        <v/>
-      </c>
-      <c r="I91" s="137">
-        <f>SUM(I23:I61,I67:I70,I76:I79,I85:I88)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="20" t="n"/>
-      <c r="B92" s="65" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="13" t="inlineStr">
+    <row r="37" ht="27.75" customHeight="1">
+      <c r="A37" s="20" t="n"/>
+      <c r="B37" s="65" t="n"/>
+    </row>
+    <row r="38" ht="27.75" customHeight="1">
+      <c r="A38" s="13" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="B93" s="13" t="n"/>
-      <c r="C93" s="13" t="n"/>
-      <c r="D93" s="101" t="n"/>
-      <c r="E93" s="27" t="n"/>
-      <c r="F93" s="96" t="n"/>
-      <c r="G93" s="96" t="n"/>
-      <c r="H93" s="96" t="n"/>
-    </row>
-    <row r="94" ht="65.25" customHeight="1">
-      <c r="A94" s="28" t="inlineStr">
+      <c r="B38" s="13" t="n"/>
+      <c r="C38" s="13" t="n"/>
+      <c r="D38" s="101" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="96" t="n"/>
+      <c r="G38" s="96" t="n"/>
+      <c r="H38" s="96" t="n"/>
+    </row>
+    <row r="39" ht="65.25" customHeight="1">
+      <c r="A39" s="28" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B94" s="104" t="inlineStr">
+      <c r="B39" s="104" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="E94" s="31" t="n"/>
-      <c r="F94" s="31" t="n"/>
-      <c r="G94" s="31" t="n"/>
-      <c r="H94" s="96" t="n"/>
-    </row>
-    <row r="95" ht="51.75" customHeight="1">
-      <c r="A95" s="104" t="inlineStr">
+      <c r="E39" s="31" t="n"/>
+      <c r="F39" s="31" t="n"/>
+      <c r="G39" s="31" t="n"/>
+      <c r="H39" s="96" t="n"/>
+    </row>
+    <row r="40" ht="51.75" customHeight="1">
+      <c r="A40" s="104" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED  PHNOM PENH BRANCH
                                           /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="E95" s="31" t="n"/>
-      <c r="F95" s="31" t="n"/>
-      <c r="G95" s="31" t="n"/>
-      <c r="H95" s="31" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="99" t="inlineStr">
+      <c r="E40" s="31" t="n"/>
+      <c r="F40" s="31" t="n"/>
+      <c r="G40" s="31" t="n"/>
+      <c r="H40" s="31" t="n"/>
+    </row>
+    <row r="41" ht="27.75" customHeight="1">
+      <c r="A41" s="99" t="inlineStr">
         <is>
           <t>A/C NO:100001100764430</t>
         </is>
       </c>
-      <c r="B96" s="99" t="n"/>
-      <c r="C96" s="99" t="n"/>
-      <c r="D96" s="99" t="n"/>
-      <c r="E96" s="16" t="n"/>
-      <c r="F96" s="16" t="n"/>
-      <c r="G96" s="16" t="n"/>
-      <c r="H96" s="16" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="99" t="inlineStr">
+      <c r="B41" s="99" t="n"/>
+      <c r="C41" s="99" t="n"/>
+      <c r="D41" s="99" t="n"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="16" t="n"/>
+      <c r="G41" s="16" t="n"/>
+      <c r="H41" s="16" t="n"/>
+    </row>
+    <row r="42" ht="27.75" customHeight="1">
+      <c r="A42" s="99" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="B97" s="99" t="n"/>
-      <c r="C97" s="99" t="n"/>
-      <c r="D97" s="99" t="n"/>
-      <c r="E97" s="16" t="n"/>
-      <c r="F97" s="16" t="n"/>
-      <c r="G97" s="16" t="n"/>
-      <c r="H97" s="16" t="n"/>
-    </row>
-    <row r="98" ht="115.7" customHeight="1">
-      <c r="A98" s="82" t="n"/>
-      <c r="B98" s="83" t="n"/>
-      <c r="C98" s="82" t="n"/>
-      <c r="D98" s="82" t="n"/>
-      <c r="E98" s="84" t="n"/>
-      <c r="F98" s="96" t="inlineStr">
+      <c r="B42" s="99" t="n"/>
+      <c r="C42" s="99" t="n"/>
+      <c r="D42" s="99" t="n"/>
+      <c r="E42" s="16" t="n"/>
+      <c r="F42" s="16" t="n"/>
+      <c r="G42" s="16" t="n"/>
+      <c r="H42" s="16" t="n"/>
+    </row>
+    <row r="43" ht="27.75" customHeight="1">
+      <c r="A43" s="82" t="n"/>
+      <c r="B43" s="83" t="n"/>
+      <c r="C43" s="82" t="n"/>
+      <c r="D43" s="82" t="n"/>
+      <c r="E43" s="84" t="n"/>
+      <c r="F43" s="96" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="G98" s="96" t="n"/>
-      <c r="H98" s="84" t="n"/>
-    </row>
+      <c r="G43" s="96" t="n"/>
+      <c r="H43" s="84" t="n"/>
+    </row>
+    <row r="44" ht="27.75" customHeight="1"/>
+    <row r="45" ht="27.75" customHeight="1"/>
+    <row r="46" ht="27.75" customHeight="1"/>
+    <row r="47" ht="27.75" customHeight="1"/>
+    <row r="48" ht="27.75" customHeight="1"/>
+    <row r="49" ht="42" customHeight="1"/>
+    <row r="50" ht="42" customHeight="1"/>
+    <row r="51" ht="74.09999999999999" customHeight="1"/>
+    <row r="52" ht="44.1" customHeight="1"/>
+    <row r="53" ht="24.75" customHeight="1"/>
+    <row r="54" ht="27" customFormat="1" customHeight="1" s="1"/>
+    <row r="55" ht="42" customHeight="1"/>
+    <row r="56" ht="24" customHeight="1">
+      <c r="A56" s="71" t="n"/>
+      <c r="B56" s="67" t="n"/>
+      <c r="C56" s="52" t="n"/>
+      <c r="D56" s="53" t="n"/>
+      <c r="E56" s="54" t="n"/>
+      <c r="F56" s="55" t="n"/>
+      <c r="G56" s="55" t="n"/>
+      <c r="H56" s="55" t="n"/>
+      <c r="I56" s="55" t="n"/>
+    </row>
+    <row r="57" ht="69.75" customHeight="1">
+      <c r="A57" s="21" t="n"/>
+      <c r="B57" s="67" t="n"/>
+      <c r="C57" s="52" t="n"/>
+      <c r="D57" s="53" t="n"/>
+      <c r="E57" s="54" t="n"/>
+      <c r="F57" s="55" t="n"/>
+      <c r="G57" s="55" t="n"/>
+      <c r="H57" s="55" t="n"/>
+      <c r="I57" s="55" t="n"/>
+    </row>
+    <row r="58" ht="42" customHeight="1">
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="67" t="n"/>
+      <c r="C58" s="52" t="n"/>
+      <c r="D58" s="53" t="n"/>
+      <c r="E58" s="54" t="n"/>
+      <c r="F58" s="55" t="n"/>
+      <c r="G58" s="55" t="n"/>
+      <c r="H58" s="55" t="n"/>
+      <c r="I58" s="55" t="n"/>
+    </row>
+    <row r="59" ht="53.1" customHeight="1">
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="67" t="n"/>
+      <c r="C59" s="52" t="n"/>
+      <c r="D59" s="53" t="n"/>
+      <c r="E59" s="54" t="n"/>
+      <c r="F59" s="55" t="n"/>
+      <c r="G59" s="55" t="n"/>
+      <c r="H59" s="55" t="n"/>
+      <c r="I59" s="55" t="n"/>
+    </row>
+    <row r="60" ht="27.75" customHeight="1">
+      <c r="A60" s="21" t="n"/>
+      <c r="B60" s="67" t="n"/>
+      <c r="C60" s="52" t="n"/>
+      <c r="D60" s="53" t="n"/>
+      <c r="E60" s="54" t="n"/>
+      <c r="F60" s="55" t="n"/>
+      <c r="G60" s="55" t="n"/>
+      <c r="H60" s="55" t="n"/>
+      <c r="I60" s="55" t="n"/>
+    </row>
+    <row r="61" ht="27.75" customHeight="1">
+      <c r="A61" s="21" t="n"/>
+      <c r="B61" s="67" t="n"/>
+      <c r="C61" s="52" t="n"/>
+      <c r="D61" s="53" t="n"/>
+      <c r="E61" s="54" t="n"/>
+      <c r="F61" s="55" t="n"/>
+      <c r="G61" s="55" t="n"/>
+      <c r="H61" s="55" t="n"/>
+      <c r="I61" s="55" t="n"/>
+    </row>
+    <row r="62" ht="27.75" customHeight="1">
+      <c r="A62" s="21" t="n"/>
+      <c r="B62" s="67" t="n"/>
+      <c r="C62" s="52" t="n"/>
+      <c r="D62" s="53" t="n"/>
+      <c r="E62" s="54" t="n"/>
+      <c r="F62" s="55" t="n"/>
+      <c r="G62" s="55" t="n"/>
+      <c r="H62" s="55" t="n"/>
+      <c r="I62" s="55" t="n"/>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="21" t="n"/>
+      <c r="B63" s="67" t="n"/>
+      <c r="C63" s="52" t="n"/>
+      <c r="D63" s="53" t="n"/>
+      <c r="E63" s="54" t="n"/>
+      <c r="F63" s="55" t="n"/>
+      <c r="G63" s="55" t="n"/>
+      <c r="H63" s="55" t="n"/>
+      <c r="I63" s="55" t="n"/>
+    </row>
+    <row r="64" ht="21" customHeight="1">
+      <c r="A64" s="21" t="n"/>
+      <c r="B64" s="67" t="n"/>
+      <c r="C64" s="52" t="n"/>
+      <c r="D64" s="53" t="n"/>
+      <c r="E64" s="54" t="n"/>
+      <c r="F64" s="55" t="n"/>
+      <c r="G64" s="55" t="n"/>
+      <c r="H64" s="55" t="n"/>
+      <c r="I64" s="55" t="n"/>
+    </row>
+    <row r="65" ht="21" customHeight="1">
+      <c r="A65" s="101" t="n"/>
+      <c r="B65" s="68" t="n"/>
+      <c r="C65" s="24" t="n"/>
+      <c r="D65" s="101" t="n"/>
+      <c r="E65" s="25" t="n"/>
+      <c r="F65" s="26" t="n"/>
+      <c r="G65" s="26" t="n"/>
+      <c r="H65" s="26" t="n"/>
+      <c r="I65" s="26" t="n"/>
+    </row>
+    <row r="66" ht="21" customHeight="1"/>
+    <row r="67" ht="21" customHeight="1"/>
+    <row r="68" ht="21" customHeight="1"/>
+    <row r="69" ht="21" customHeight="1"/>
+    <row r="70" ht="21" customHeight="1">
+      <c r="B70" s="69" t="n"/>
+    </row>
+    <row r="71" ht="21" customHeight="1"/>
+    <row r="72" ht="25.5" customHeight="1"/>
+    <row r="73" ht="21" customHeight="1">
+      <c r="F73" s="96" t="n"/>
+      <c r="G73" s="96" t="n"/>
+      <c r="H73" s="96" t="n"/>
+    </row>
+    <row r="74" ht="21" customHeight="1">
+      <c r="F74" s="96" t="n"/>
+      <c r="G74" s="96" t="n"/>
+      <c r="H74" s="96" t="n"/>
+    </row>
+    <row r="75" ht="21" customHeight="1">
+      <c r="F75" s="96" t="n"/>
+      <c r="G75" s="96" t="n"/>
+      <c r="H75" s="96" t="n"/>
+      <c r="I75" s="96" t="n"/>
+    </row>
+    <row r="76" ht="21" customHeight="1"/>
+    <row r="77" ht="21" customHeight="1"/>
+    <row r="78" ht="17.25" customHeight="1"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98" ht="115.7" customHeight="1"/>
     <row r="99" ht="113.65" customHeight="1"/>
     <row r="100"/>
     <row r="101"/>
@@ -5512,141 +4055,38 @@
     <row r="108"/>
     <row r="109"/>
     <row r="110"/>
-    <row r="111">
-      <c r="A111" s="71" t="n"/>
-      <c r="B111" s="67" t="n"/>
-      <c r="C111" s="52" t="n"/>
-      <c r="D111" s="53" t="n"/>
-      <c r="E111" s="54" t="n"/>
-      <c r="F111" s="55" t="n"/>
-      <c r="G111" s="55" t="n"/>
-      <c r="H111" s="55" t="n"/>
-      <c r="I111" s="55" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="67" t="n"/>
-      <c r="C112" s="52" t="n"/>
-      <c r="D112" s="53" t="n"/>
-      <c r="E112" s="54" t="n"/>
-      <c r="F112" s="55" t="n"/>
-      <c r="G112" s="55" t="n"/>
-      <c r="H112" s="55" t="n"/>
-      <c r="I112" s="55" t="n"/>
-    </row>
+    <row r="111"/>
+    <row r="112"/>
     <row r="113">
-      <c r="A113" s="21" t="n"/>
-      <c r="B113" s="67" t="n"/>
-      <c r="C113" s="52" t="n"/>
-      <c r="D113" s="53" t="n"/>
-      <c r="E113" s="54" t="n"/>
-      <c r="F113" s="55" t="n"/>
-      <c r="G113" s="55" t="n"/>
-      <c r="H113" s="55" t="n"/>
-      <c r="I113" s="55" t="n"/>
+      <c r="I113" s="96" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="21" t="n"/>
-      <c r="B114" s="67" t="n"/>
-      <c r="C114" s="52" t="n"/>
-      <c r="D114" s="53" t="n"/>
-      <c r="E114" s="54" t="n"/>
-      <c r="F114" s="55" t="n"/>
-      <c r="G114" s="55" t="n"/>
-      <c r="H114" s="55" t="n"/>
-      <c r="I114" s="55" t="n"/>
+      <c r="I114" s="96" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="21" t="n"/>
-      <c r="B115" s="67" t="n"/>
-      <c r="C115" s="52" t="n"/>
-      <c r="D115" s="53" t="n"/>
-      <c r="E115" s="54" t="n"/>
-      <c r="F115" s="55" t="n"/>
-      <c r="G115" s="55" t="n"/>
-      <c r="H115" s="55" t="n"/>
-      <c r="I115" s="55" t="n"/>
+      <c r="I115" s="96" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="21" t="n"/>
-      <c r="B116" s="67" t="n"/>
-      <c r="C116" s="52" t="n"/>
-      <c r="D116" s="53" t="n"/>
-      <c r="E116" s="54" t="n"/>
-      <c r="F116" s="55" t="n"/>
-      <c r="G116" s="55" t="n"/>
-      <c r="H116" s="55" t="n"/>
-      <c r="I116" s="55" t="n"/>
+      <c r="I116" s="16" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="21" t="n"/>
-      <c r="B117" s="67" t="n"/>
-      <c r="C117" s="52" t="n"/>
-      <c r="D117" s="53" t="n"/>
-      <c r="E117" s="54" t="n"/>
-      <c r="F117" s="55" t="n"/>
-      <c r="G117" s="55" t="n"/>
-      <c r="H117" s="55" t="n"/>
-      <c r="I117" s="55" t="n"/>
+      <c r="I117" s="16" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="21" t="n"/>
-      <c r="B118" s="67" t="n"/>
-      <c r="C118" s="52" t="n"/>
-      <c r="D118" s="53" t="n"/>
-      <c r="E118" s="54" t="n"/>
-      <c r="F118" s="55" t="n"/>
-      <c r="G118" s="55" t="n"/>
-      <c r="H118" s="55" t="n"/>
-      <c r="I118" s="55" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="21" t="n"/>
-      <c r="B119" s="67" t="n"/>
-      <c r="C119" s="52" t="n"/>
-      <c r="D119" s="53" t="n"/>
-      <c r="E119" s="54" t="n"/>
-      <c r="F119" s="55" t="n"/>
-      <c r="G119" s="55" t="n"/>
-      <c r="H119" s="55" t="n"/>
-      <c r="I119" s="55" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="101" t="n"/>
-      <c r="B120" s="68" t="n"/>
-      <c r="C120" s="24" t="n"/>
-      <c r="D120" s="101" t="n"/>
-      <c r="E120" s="25" t="n"/>
-      <c r="F120" s="26" t="n"/>
-      <c r="G120" s="26" t="n"/>
-      <c r="H120" s="26" t="n"/>
-      <c r="I120" s="26" t="n"/>
-    </row>
+      <c r="I118" s="96" t="n"/>
+    </row>
+    <row r="119"/>
+    <row r="120"/>
     <row r="121"/>
     <row r="122"/>
     <row r="123"/>
     <row r="124"/>
-    <row r="125">
-      <c r="B125" s="69" t="n"/>
-    </row>
+    <row r="125"/>
     <row r="126"/>
     <row r="127"/>
-    <row r="128">
-      <c r="F128" s="96" t="n"/>
-      <c r="G128" s="96" t="n"/>
-      <c r="H128" s="96" t="n"/>
-    </row>
-    <row r="129">
-      <c r="F129" s="96" t="n"/>
-      <c r="G129" s="96" t="n"/>
-      <c r="H129" s="96" t="n"/>
-    </row>
-    <row r="130">
-      <c r="F130" s="96" t="n"/>
-      <c r="G130" s="96" t="n"/>
-      <c r="H130" s="96" t="n"/>
-      <c r="I130" s="96" t="n"/>
-    </row>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
     <row r="131"/>
     <row r="132"/>
     <row r="133"/>
@@ -5684,24 +4124,12 @@
     <row r="165"/>
     <row r="166"/>
     <row r="167"/>
-    <row r="168">
-      <c r="I168" s="96" t="n"/>
-    </row>
-    <row r="169">
-      <c r="I169" s="96" t="n"/>
-    </row>
-    <row r="170">
-      <c r="I170" s="96" t="n"/>
-    </row>
-    <row r="171">
-      <c r="I171" s="16" t="n"/>
-    </row>
-    <row r="172">
-      <c r="I172" s="16" t="n"/>
-    </row>
-    <row r="173">
-      <c r="I173" s="96" t="n"/>
-    </row>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
     <row r="174"/>
     <row r="175"/>
     <row r="176"/>
@@ -5730,62 +4158,25 @@
     <row r="199"/>
     <row r="200"/>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="H74:H75"/>
+  <mergeCells count="19">
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B63"/>
-    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B36"/>
+    <mergeCell ref="D23:D34"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A74:A75"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A64"/>
-    <mergeCell ref="B91"/>
-    <mergeCell ref="G74:G75"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="A73"/>
-    <mergeCell ref="B81"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A82"/>
-    <mergeCell ref="B72"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="B90"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="E74:F74"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="A83:A84"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C83:C84"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="A95:D95"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="D23:D61"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="E21:F21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
